--- a/organize .xlsx
+++ b/organize .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5666" uniqueCount="1930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5681" uniqueCount="1940">
   <si>
     <t>Stars Exhibition</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6036,575 +6036,615 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Sculpture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>With Portrait...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">No.2  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forest Series</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encounter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall the West</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle Series</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impression of Fastfood Restaurant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portrait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cat's World</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48 野木 天啟——野馬陽炎系列之一 油畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chair and People</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breeding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yin and Yang, Day and Night Being Equally separated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creating Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Between 0 to 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flouting Wing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strange Landscape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Nights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Moon Is Sleeping on Earth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Religion and Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dun Huang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Landscape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History of Civilization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sky and Ocean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work 2</t>
+  </si>
+  <si>
+    <t>Work 3</t>
+  </si>
+  <si>
+    <t>Big Wheel 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big Wheel 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wisdom and Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philosophy Script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Culture No.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title 2</t>
+  </si>
+  <si>
+    <t>Self Portrait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Maple Illustration based on a short story </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo during Culture Revolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wei Fuyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title, No.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title, No.2</t>
+  </si>
+  <si>
+    <t>No Title, No.3</t>
+  </si>
+  <si>
+    <t>No Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northern Su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Station</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title, No.4</t>
+  </si>
+  <si>
+    <t>No Title, No.5</t>
+  </si>
+  <si>
+    <t>Performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown Book No.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown Book No.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sea Breeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shi Guo,To Penetrate Each Other,ink,1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shi Panshi,Abyss,oil on canvas,1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Ziren,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl Space No.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl Space No.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl Space No.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Seven Seven Seven " Logo, Ren Jian Design,1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Photo of the "Seven Seven Seven", from left:Shu Qun, Ren Jian, Zhang Shuguang, Lv Yin,Zhang Qiandi, Ba Wei,1984 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover of Magazine "God" from Northern Art Group,1985 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invitation of Northern Artists Group Biennial,1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene of Northern Artists Group Biennial,1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 "理性绘画专题讨论会" 现场讨论 右起：高名潞 朱青生 刘彦 王雅琳 舒群等 1987.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guest Book of Northern Artists Group Biennial,1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 "北方艺术群体双年展"合影 第一排左起：王雅琳 王碧蓉 摄制组成员 卡桑 中央台摄制组组员 刘彦 倪琪 中央台摄制组组长李少武 第二排左起 摄制组组员两人 王广义 高名潞 周彦 舒群 舒群弟 摄制组组员 1987.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 "七七七"成員聚會 左起：舒群 任戩 張曙光 呂瑛 張茜苐 巴威 1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 星星露天美展 左一曲磊磊 左二美協主席劉迅 左三李爽 左五王克平 1979</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 第二屆星星畫展成員合影于北京中國美術館 左起：石京生 陳延生 姓名不詳 曲磊磊 馬德升 王克平 北島 楊益平 黃銳 包炮 朱金石 1980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 "理性绘画专题讨论会"现场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 王广义 凝固的北方极地系列·15号 油画 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Frozen North Pole  No.15, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17 王广义 后古典·信仰的时代 中世纪 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Post Classical: Era of Faith Medieval, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Post Classical:The Return of Tragic Love, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Post Classical: Cross Came Down, oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Post Classical: Holy Communion, oil on canvas,1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22 舒群 作品三号 油画 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu Qun, Work No.3, oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 舒群 绝对原则系列·4号 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu Qun, Absolute Principle No.4,oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu Qun, Absolute Principle,oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu Qun, Endless Road No.6, oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ren Jian, Legend of Sirius No.1,ink, 1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ren Jian,Haven, Earth, and Hell No.1,oil on canvas, 1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lin Wei,Structure of Rouault No.1,oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Yalin,Landscape,oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 王海燕两个角度的自画像 油画 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Haiyan,Self-portrait from 2 Angles,oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Youth Year, Jiangsu Youth Art Week,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiangsu Youth Art Week,Large Modern Art Exhibition,exhibition contract,1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiangsu Youth Art Week,Large Modern Art Exhibition,scence 1, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu Xiaoyun, Repeatation, Cutted Apple, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu Xiaoyun, Seeing Sky through Yellow Hands, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ren Rong, The hand together with the shadow Is Seeking Suviving, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu Weide, Corrosive Laugh, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu Yihui, Southern Moleyate, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiang Songzhu, Final Persue=Vain, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"White Sail Art Photography Exhibition" Album, cover,1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"White Sail Art Photography Exhibition" Album, content 1,1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"White Sail Art Photography Exhibition" Album, content 2,1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yang Zhilin, Constellation, composite materials, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chai Xiaogang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialoge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 包劍斐 新空間2號 版畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv Tao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geng Jianli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Pipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haircut 4--Fashinable Style in Summer in 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Song Lin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>People Pipe 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silent Dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cha Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cha Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu Jin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guojun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27 張培力 《褐皮書一號》實行過程·在郵件封皮上書寫收件人姓名及地址 1988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 張培力 《褐皮書一號》實行過程45·講郵件送入郵筒 1988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 龔建慶 哈雷彗星 版畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiao Gu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tear the sky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 楊暉 沒有日期的東方節日 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19 《首屆上海青年美術作品展作品選》封面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 《海平線'86》册頁封面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jian Jun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44 陳箴 無題 油畫 1983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yu Sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Mask No.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sculpture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>With Portrait...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">No.2  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forest Series</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Primitive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Encounter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recall the West</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Circle Series</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Impression of Fastfood Restaurant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Portrait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cat's World</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48 野木 天啟——野馬陽炎系列之一 油畫 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chair and People</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breeding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yin and Yang, Day and Night Being Equally separated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Creating Object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Between 0 to 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flouting Wing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strange Landscape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>White Nights</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Moon Is Sleeping on Earth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Religion and Science</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dun Huang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Landscape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>History of Civilization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sky and Ocean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work 2</t>
-  </si>
-  <si>
-    <t>Work 3</t>
-  </si>
-  <si>
-    <t>Big Wheel 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Big Wheel 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wisdom and Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Philosophy Script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Culture No.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title 2</t>
-  </si>
-  <si>
-    <t>Self Portrait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Maple Illustration based on a short story </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo during Culture Revolution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wei Fuyi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title, No.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title, No.2</t>
-  </si>
-  <si>
-    <t>No Title, No.3</t>
-  </si>
-  <si>
-    <t>No Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Northern Su</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Station</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title, No.4</t>
-  </si>
-  <si>
-    <t>No Title, No.5</t>
-  </si>
-  <si>
-    <t>Performance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brown Book No.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brown Book No.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sea Breeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shi Guo,To Penetrate Each Other,ink,1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shi Panshi,Abyss,oil on canvas,1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Li Ziren,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Girl Space No.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Girl Space No.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Girl Space No.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Seven Seven Seven " Logo, Ren Jian Design,1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Group Photo of the "Seven Seven Seven", from left:Shu Qun, Ren Jian, Zhang Shuguang, Lv Yin,Zhang Qiandi, Ba Wei,1984 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover of Magazine "God" from Northern Art Group,1985 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invitation of Northern Artists Group Biennial,1987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene of Northern Artists Group Biennial,1987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 "理性绘画专题讨论会" 现场讨论 右起：高名潞 朱青生 刘彦 王雅琳 舒群等 1987.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guest Book of Northern Artists Group Biennial,1987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 "北方艺术群体双年展"合影 第一排左起：王雅琳 王碧蓉 摄制组成员 卡桑 中央台摄制组组员 刘彦 倪琪 中央台摄制组组长李少武 第二排左起 摄制组组员两人 王广义 高名潞 周彦 舒群 舒群弟 摄制组组员 1987.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 "七七七"成員聚會 左起：舒群 任戩 張曙光 呂瑛 張茜苐 巴威 1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 星星露天美展 左一曲磊磊 左二美協主席劉迅 左三李爽 左五王克平 1979</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 第二屆星星畫展成員合影于北京中國美術館 左起：石京生 陳延生 姓名不詳 曲磊磊 馬德升 王克平 北島 楊益平 黃銳 包炮 朱金石 1980</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 "理性绘画专题讨论会"现场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 王广义 凝固的北方极地系列·15号 油画 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Frozen North Pole  No.15, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17 王广义 后古典·信仰的时代 中世纪 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Post Classical: Era of Faith Medieval, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Post Classical:The Return of Tragic Love, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Post Classical: Cross Came Down, oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Post Classical: Holy Communion, oil on canvas,1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22 舒群 作品三号 油画 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shu Qun, Work No.3, oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23 舒群 绝对原则系列·4号 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shu Qun, Absolute Principle No.4,oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shu Qun, Absolute Principle,oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shu Qun, Endless Road No.6, oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ren Jian, Legend of Sirius No.1,ink, 1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ren Jian,Haven, Earth, and Hell No.1,oil on canvas, 1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lin Wei,Structure of Rouault No.1,oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Yalin,Landscape,oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50 王海燕两个角度的自画像 油画 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Haiyan,Self-portrait from 2 Angles,oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>International Youth Year, Jiangsu Youth Art Week,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiangsu Youth Art Week,Large Modern Art Exhibition,exhibition contract,1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiangsu Youth Art Week,Large Modern Art Exhibition,scence 1, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wu Xiaoyun, Repeatation, Cutted Apple, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wu Xiaoyun, Seeing Sky through Yellow Hands, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ren Rong, The hand together with the shadow Is Seeking Suviving, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xu Weide, Corrosive Laugh, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xu Yihui, Southern Moleyate, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiang Songzhu, Final Persue=Vain, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"White Sail Art Photography Exhibition" Album, cover,1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"White Sail Art Photography Exhibition" Album, content 1,1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"White Sail Art Photography Exhibition" Album, content 2,1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yang Zhilin, Constellation, composite materials, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chai Xiaogang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Autumn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialoge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 包劍斐 新空間2號 版畫 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv Tao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geng Jianli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>White Pipe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haircut 4--Fashinable Style in Summer in 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Song Lin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>People Pipe 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silent Dialogue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cha Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cha Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xu Jin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guojun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27 張培力 《褐皮書一號》實行過程·在郵件封皮上書寫收件人姓名及地址 1988</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28 張培力 《褐皮書一號》實行過程45·講郵件送入郵筒 1988</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 龔建慶 哈雷彗星 版畫 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xiao Gu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Halley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reverie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tear the sky</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 楊暉 沒有日期的東方節日 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19 《首屆上海青年美術作品展作品選》封面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 《海平線'86》册頁封面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jian Jun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44 陳箴 無題 油畫 1983</t>
+    <t>Zhang Jieming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Lianling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Shan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Shan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yu Youlian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhao Yifu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hong Jijie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen Zhen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen Zhen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16691,9 +16731,9 @@
   <dimension ref="A1:N1051"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F265" sqref="F265"/>
+      <selection pane="bottomLeft" activeCell="C271" sqref="C271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16989,7 +17029,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="C12" t="s">
         <v>1415</v>
@@ -17015,7 +17055,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C13" t="s">
         <v>1416</v>
@@ -17431,7 +17471,7 @@
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="G26" t="s">
         <v>1092</v>
@@ -17692,7 +17732,7 @@
         <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D41" t="s">
         <v>1296</v>
@@ -17721,7 +17761,7 @@
         <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D42" t="s">
         <v>1296</v>
@@ -17750,7 +17790,7 @@
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D43" t="s">
         <v>1296</v>
@@ -17759,7 +17799,7 @@
         <v>1446</v>
       </c>
       <c r="F43" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="G43" t="s">
         <v>1768</v>
@@ -17788,7 +17828,7 @@
         <v>1446</v>
       </c>
       <c r="F44" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G44" t="s">
         <v>1362</v>
@@ -17817,7 +17857,7 @@
         <v>1446</v>
       </c>
       <c r="F45" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="G45" t="s">
         <v>1767</v>
@@ -17931,7 +17971,7 @@
         <v>1587</v>
       </c>
       <c r="C51" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D51" t="s">
         <v>1296</v>
@@ -17974,10 +18014,10 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C53" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D53" t="s">
         <v>1295</v>
@@ -17997,7 +18037,7 @@
         <v>1594</v>
       </c>
       <c r="C54" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D54" t="s">
         <v>1297</v>
@@ -18014,7 +18054,7 @@
         <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D55" t="s">
         <v>1295</v>
@@ -18031,7 +18071,7 @@
         <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D56" t="s">
         <v>1298</v>
@@ -18048,7 +18088,7 @@
         <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D57" t="s">
         <v>1297</v>
@@ -18062,7 +18102,7 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C58" t="s">
         <v>1595</v>
@@ -18076,7 +18116,7 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D59" t="s">
         <v>1299</v>
@@ -18090,7 +18130,7 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D60" t="s">
         <v>1300</v>
@@ -18104,10 +18144,10 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C61" t="s">
         <v>1869</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1870</v>
       </c>
       <c r="D61" t="s">
         <v>1301</v>
@@ -18234,10 +18274,10 @@
         <v>19</v>
       </c>
       <c r="B66" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C66" t="s">
         <v>1871</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1872</v>
       </c>
       <c r="D66" t="s">
         <v>1301</v>
@@ -18263,7 +18303,7 @@
         <v>1360</v>
       </c>
       <c r="C67" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D67" t="s">
         <v>1301</v>
@@ -18289,7 +18329,7 @@
         <v>1364</v>
       </c>
       <c r="C68" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D68" t="s">
         <v>1301</v>
@@ -18341,7 +18381,7 @@
         <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D70" t="s">
         <v>1301</v>
@@ -18364,10 +18404,10 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C71" t="s">
         <v>1876</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1877</v>
       </c>
       <c r="D71" t="s">
         <v>1301</v>
@@ -18390,10 +18430,10 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C72" t="s">
         <v>1878</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1879</v>
       </c>
       <c r="D72" t="s">
         <v>1301</v>
@@ -18419,7 +18459,7 @@
         <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D73" t="s">
         <v>1301</v>
@@ -18445,7 +18485,7 @@
         <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D74" t="s">
         <v>1301</v>
@@ -18471,7 +18511,7 @@
         <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D75" t="s">
         <v>1301</v>
@@ -18679,7 +18719,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D83" t="s">
         <v>1301</v>
@@ -18809,7 +18849,7 @@
         <v>105</v>
       </c>
       <c r="C88" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D88" t="s">
         <v>1301</v>
@@ -19069,7 +19109,7 @@
         <v>115</v>
       </c>
       <c r="C98" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D98" t="s">
         <v>1301</v>
@@ -19089,10 +19129,10 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C99" t="s">
         <v>1886</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1887</v>
       </c>
       <c r="D99" t="s">
         <v>1301</v>
@@ -19123,7 +19163,7 @@
         <v>117</v>
       </c>
       <c r="C101" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D101" t="s">
         <v>1295</v>
@@ -19140,7 +19180,7 @@
         <v>118</v>
       </c>
       <c r="C102" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D102" t="s">
         <v>1302</v>
@@ -19157,7 +19197,7 @@
         <v>119</v>
       </c>
       <c r="C103" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D103" t="s">
         <v>1298</v>
@@ -19330,7 +19370,7 @@
         <v>129</v>
       </c>
       <c r="C113" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D113" t="s">
         <v>1296</v>
@@ -19353,7 +19393,7 @@
         <v>130</v>
       </c>
       <c r="C114" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D114" t="s">
         <v>1306</v>
@@ -19376,7 +19416,7 @@
         <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D115" t="s">
         <v>1306</v>
@@ -19399,7 +19439,7 @@
         <v>1399</v>
       </c>
       <c r="C116" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D116" t="s">
         <v>1306</v>
@@ -19445,7 +19485,7 @@
         <v>134</v>
       </c>
       <c r="C118" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D118" t="s">
         <v>1306</v>
@@ -19468,7 +19508,7 @@
         <v>135</v>
       </c>
       <c r="C119" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D119" t="s">
         <v>1306</v>
@@ -19491,7 +19531,7 @@
         <v>136</v>
       </c>
       <c r="C120" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D120" t="s">
         <v>1307</v>
@@ -19508,7 +19548,7 @@
         <v>137</v>
       </c>
       <c r="C121" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="D121" t="s">
         <v>1307</v>
@@ -19525,7 +19565,7 @@
         <v>138</v>
       </c>
       <c r="C122" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D122" t="s">
         <v>1307</v>
@@ -20362,7 +20402,7 @@
         <v>174</v>
       </c>
       <c r="C158" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D158" t="s">
         <v>1301</v>
@@ -20569,7 +20609,7 @@
         <v>183</v>
       </c>
       <c r="C167" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D167" t="s">
         <v>1301</v>
@@ -20965,7 +21005,7 @@
         <v>1301</v>
       </c>
       <c r="F182" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="H182" t="s">
         <v>1161</v>
@@ -21043,7 +21083,7 @@
         <v>1301</v>
       </c>
       <c r="F185" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="H185" t="s">
         <v>1164</v>
@@ -21069,7 +21109,7 @@
         <v>1301</v>
       </c>
       <c r="F186" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="H186" t="s">
         <v>1166</v>
@@ -21271,7 +21311,7 @@
         <v>210</v>
       </c>
       <c r="C194" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D194" t="s">
         <v>1301</v>
@@ -21334,7 +21374,7 @@
         <v>1171</v>
       </c>
       <c r="F197" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="H197" t="s">
         <v>1171</v>
@@ -21446,10 +21486,10 @@
         <v>217</v>
       </c>
       <c r="C202" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="F202" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="H202" t="s">
         <v>1173</v>
@@ -21469,10 +21509,10 @@
         <v>218</v>
       </c>
       <c r="C203" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="F203" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="H203" t="s">
         <v>1173</v>
@@ -21495,7 +21535,7 @@
         <v>1173</v>
       </c>
       <c r="F204" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="H204" t="s">
         <v>1173</v>
@@ -21518,7 +21558,7 @@
         <v>1173</v>
       </c>
       <c r="F205" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="H205" t="s">
         <v>1173</v>
@@ -21581,7 +21621,7 @@
         <v>15</v>
       </c>
       <c r="B208" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="C208" t="s">
         <v>1174</v>
@@ -21676,7 +21716,7 @@
         <v>227</v>
       </c>
       <c r="C212" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="F212" t="s">
         <v>1772</v>
@@ -21699,7 +21739,7 @@
         <v>228</v>
       </c>
       <c r="C213" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="F213" t="s">
         <v>1773</v>
@@ -21722,7 +21762,7 @@
         <v>229</v>
       </c>
       <c r="C214" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="F214" t="s">
         <v>1774</v>
@@ -21745,7 +21785,7 @@
         <v>230</v>
       </c>
       <c r="C215" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="F215" t="s">
         <v>1775</v>
@@ -21814,7 +21854,7 @@
         <v>233</v>
       </c>
       <c r="C218" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="F218" t="s">
         <v>1778</v>
@@ -21886,10 +21926,10 @@
         <v>1171</v>
       </c>
       <c r="F221" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G221" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="H221" t="s">
         <v>1171</v>
@@ -21906,16 +21946,16 @@
         <v>1050</v>
       </c>
       <c r="B222" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C222" t="s">
         <v>1171</v>
       </c>
       <c r="F222" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G222" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="H222" t="s">
         <v>1171</v>
@@ -21932,16 +21972,16 @@
         <v>1</v>
       </c>
       <c r="B223" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="C223" t="s">
         <v>1171</v>
       </c>
       <c r="F223" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G223" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="J223" t="s">
         <v>1556</v>
@@ -22032,7 +22072,7 @@
         <v>242</v>
       </c>
       <c r="C228" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="H228" t="s">
         <v>1183</v>
@@ -22072,13 +22112,13 @@
         <v>8</v>
       </c>
       <c r="B230" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="C230" t="s">
         <v>1183</v>
       </c>
       <c r="F230" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="H230" t="s">
         <v>1183</v>
@@ -22124,7 +22164,7 @@
         <v>1183</v>
       </c>
       <c r="F232" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="H232" t="s">
         <v>1184</v>
@@ -22170,7 +22210,7 @@
         <v>1184</v>
       </c>
       <c r="F234" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="H234" t="s">
         <v>1184</v>
@@ -22227,7 +22267,7 @@
         <v>15</v>
       </c>
       <c r="B237" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C237" t="s">
         <v>1185</v>
@@ -22347,7 +22387,7 @@
         <v>21</v>
       </c>
       <c r="B243" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D243" t="s">
         <v>1138</v>
@@ -22361,7 +22401,7 @@
         <v>22</v>
       </c>
       <c r="B244" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D244" t="s">
         <v>1136</v>
@@ -22490,7 +22530,7 @@
         <v>267</v>
       </c>
       <c r="C253" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D253" t="s">
         <v>1136</v>
@@ -22549,14 +22589,17 @@
       <c r="B256" t="s">
         <v>270</v>
       </c>
+      <c r="C256" t="s">
+        <v>1929</v>
+      </c>
       <c r="D256" t="s">
         <v>1188</v>
       </c>
       <c r="F256" t="s">
+        <v>1930</v>
+      </c>
+      <c r="G256" t="s">
         <v>1785</v>
-      </c>
-      <c r="G256" t="s">
-        <v>1786</v>
       </c>
       <c r="H256" t="s">
         <v>1530</v>
@@ -22575,11 +22618,14 @@
       <c r="B257" t="s">
         <v>271</v>
       </c>
+      <c r="C257" t="s">
+        <v>1931</v>
+      </c>
       <c r="D257" t="s">
         <v>1187</v>
       </c>
       <c r="F257" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="H257" t="s">
         <v>1531</v>
@@ -22598,11 +22644,14 @@
       <c r="B258" t="s">
         <v>272</v>
       </c>
+      <c r="C258" t="s">
+        <v>1931</v>
+      </c>
       <c r="D258" t="s">
         <v>1187</v>
       </c>
       <c r="F258" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="H258" t="s">
         <v>1531</v>
@@ -22621,11 +22670,14 @@
       <c r="B259" t="s">
         <v>273</v>
       </c>
+      <c r="C259" t="s">
+        <v>1931</v>
+      </c>
       <c r="D259" t="s">
         <v>1187</v>
       </c>
       <c r="F259" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="H259" t="s">
         <v>1531</v>
@@ -22644,11 +22696,14 @@
       <c r="B260" t="s">
         <v>274</v>
       </c>
+      <c r="C260" t="s">
+        <v>1932</v>
+      </c>
       <c r="D260" t="s">
         <v>1187</v>
       </c>
       <c r="F260" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="H260" t="s">
         <v>1532</v>
@@ -22667,11 +22722,14 @@
       <c r="B261" t="s">
         <v>275</v>
       </c>
+      <c r="C261" t="s">
+        <v>1933</v>
+      </c>
       <c r="D261" t="s">
         <v>1187</v>
       </c>
       <c r="F261" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="H261" t="s">
         <v>1470</v>
@@ -22690,11 +22748,14 @@
       <c r="B262" t="s">
         <v>276</v>
       </c>
+      <c r="C262" t="s">
+        <v>1934</v>
+      </c>
       <c r="D262" t="s">
         <v>1187</v>
       </c>
       <c r="F262" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="H262" t="s">
         <v>1470</v>
@@ -22713,11 +22774,14 @@
       <c r="B263" t="s">
         <v>277</v>
       </c>
+      <c r="C263" t="s">
+        <v>1934</v>
+      </c>
       <c r="D263" t="s">
         <v>1187</v>
       </c>
       <c r="F263" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H263" t="s">
         <v>1470</v>
@@ -22736,11 +22800,14 @@
       <c r="B264" t="s">
         <v>278</v>
       </c>
+      <c r="C264" t="s">
+        <v>1935</v>
+      </c>
       <c r="D264" t="s">
         <v>1187</v>
       </c>
       <c r="F264" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="H264" t="s">
         <v>1533</v>
@@ -22759,11 +22826,14 @@
       <c r="B265" t="s">
         <v>279</v>
       </c>
+      <c r="C265" t="s">
+        <v>1936</v>
+      </c>
       <c r="D265" t="s">
         <v>1187</v>
       </c>
       <c r="F265" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H265" t="s">
         <v>1534</v>
@@ -22782,11 +22852,14 @@
       <c r="B266" t="s">
         <v>280</v>
       </c>
+      <c r="C266" t="s">
+        <v>1937</v>
+      </c>
       <c r="D266" t="s">
         <v>1187</v>
       </c>
       <c r="F266" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="H266" t="s">
         <v>1535</v>
@@ -22805,11 +22878,14 @@
       <c r="B267" t="s">
         <v>281</v>
       </c>
+      <c r="C267" t="s">
+        <v>1938</v>
+      </c>
       <c r="D267" t="s">
         <v>1187</v>
       </c>
       <c r="F267" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="H267" t="s">
         <v>1536</v>
@@ -22826,13 +22902,16 @@
         <v>46</v>
       </c>
       <c r="B268" t="s">
-        <v>1929</v>
+        <v>1928</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1939</v>
       </c>
       <c r="D268" t="s">
         <v>1187</v>
       </c>
       <c r="F268" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="H268" t="s">
         <v>1536</v>
@@ -22851,6 +22930,9 @@
       <c r="B269" t="s">
         <v>283</v>
       </c>
+      <c r="C269" t="s">
+        <v>1939</v>
+      </c>
       <c r="D269" t="s">
         <v>1187</v>
       </c>
@@ -22871,6 +22953,9 @@
       <c r="B270" t="s">
         <v>284</v>
       </c>
+      <c r="C270" t="s">
+        <v>1939</v>
+      </c>
       <c r="D270" t="s">
         <v>1187</v>
       </c>
@@ -22895,7 +22980,7 @@
         <v>1187</v>
       </c>
       <c r="F271" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="H271" t="s">
         <v>1537</v>
@@ -22912,7 +22997,7 @@
         <v>50</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D272" t="s">
         <v>1187</v>
@@ -22958,7 +23043,7 @@
         <v>1187</v>
       </c>
       <c r="F274" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="H274" t="s">
         <v>1539</v>
@@ -22981,7 +23066,7 @@
         <v>1187</v>
       </c>
       <c r="F275" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="H275" t="s">
         <v>1540</v>
@@ -23004,7 +23089,7 @@
         <v>1187</v>
       </c>
       <c r="F276" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="H276" t="s">
         <v>1541</v>
@@ -23027,7 +23112,7 @@
         <v>1187</v>
       </c>
       <c r="F277" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="H277" t="s">
         <v>1542</v>
@@ -23070,7 +23155,7 @@
         <v>1187</v>
       </c>
       <c r="F279" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="H279" t="s">
         <v>1544</v>
@@ -23093,7 +23178,7 @@
         <v>1187</v>
       </c>
       <c r="F280" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="H280" t="s">
         <v>1545</v>
@@ -23116,7 +23201,7 @@
         <v>1187</v>
       </c>
       <c r="F281" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="H281" t="s">
         <v>1546</v>
@@ -23139,7 +23224,7 @@
         <v>1187</v>
       </c>
       <c r="F282" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="H282" t="s">
         <v>1547</v>
@@ -23162,7 +23247,7 @@
         <v>1187</v>
       </c>
       <c r="F283" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="H283" t="s">
         <v>1548</v>
@@ -23182,7 +23267,7 @@
         <v>298</v>
       </c>
       <c r="F284" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="H284" t="s">
         <v>1548</v>
@@ -23202,7 +23287,7 @@
         <v>299</v>
       </c>
       <c r="F285" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="H285" t="s">
         <v>1549</v>
@@ -24169,7 +24254,7 @@
         <v>1142</v>
       </c>
       <c r="F323" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="G323" t="s">
         <v>1767</v>
@@ -24198,7 +24283,7 @@
         <v>1187</v>
       </c>
       <c r="F324" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="G324" t="s">
         <v>1767</v>
@@ -24227,7 +24312,7 @@
         <v>1187</v>
       </c>
       <c r="F325" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="G325" t="s">
         <v>1767</v>
@@ -24256,7 +24341,7 @@
         <v>1187</v>
       </c>
       <c r="F326" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="G326" t="s">
         <v>1767</v>
@@ -24285,7 +24370,7 @@
         <v>1187</v>
       </c>
       <c r="F327" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G327" t="s">
         <v>1767</v>
@@ -24337,7 +24422,7 @@
         <v>1187</v>
       </c>
       <c r="F329" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="G329" t="s">
         <v>1767</v>
@@ -24389,7 +24474,7 @@
         <v>1187</v>
       </c>
       <c r="F331" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="H331" t="s">
         <v>1197</v>
@@ -24415,7 +24500,7 @@
         <v>1187</v>
       </c>
       <c r="F332" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="H332" t="s">
         <v>1197</v>
@@ -24510,7 +24595,7 @@
         <v>1187</v>
       </c>
       <c r="F336" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H336" t="s">
         <v>1197</v>
@@ -24536,7 +24621,7 @@
         <v>1187</v>
       </c>
       <c r="F337" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="H337" t="s">
         <v>1197</v>
@@ -24562,7 +24647,7 @@
         <v>1187</v>
       </c>
       <c r="F338" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="H338" t="s">
         <v>1197</v>
@@ -24588,7 +24673,7 @@
         <v>1187</v>
       </c>
       <c r="F339" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="H339" t="s">
         <v>1197</v>
@@ -24660,7 +24745,7 @@
         <v>1187</v>
       </c>
       <c r="F342" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="H342" t="s">
         <v>1197</v>
@@ -24778,7 +24863,7 @@
         <v>1187</v>
       </c>
       <c r="F347" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="H347" t="s">
         <v>1197</v>
@@ -24827,7 +24912,7 @@
         <v>1187</v>
       </c>
       <c r="F349" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="H349" t="s">
         <v>1198</v>
@@ -24853,7 +24938,7 @@
         <v>1187</v>
       </c>
       <c r="F350" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="H350" t="s">
         <v>1198</v>
@@ -24879,7 +24964,7 @@
         <v>1187</v>
       </c>
       <c r="F351" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="H351" t="s">
         <v>1198</v>
@@ -24905,7 +24990,7 @@
         <v>1187</v>
       </c>
       <c r="F352" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="H352" t="s">
         <v>1199</v>
@@ -24931,7 +25016,7 @@
         <v>1187</v>
       </c>
       <c r="F353" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="H353" t="s">
         <v>1199</v>
@@ -25407,7 +25492,7 @@
         <v>1189</v>
       </c>
       <c r="F381" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="H381" t="s">
         <v>1202</v>
@@ -25430,7 +25515,7 @@
         <v>1189</v>
       </c>
       <c r="F382" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="H382" t="s">
         <v>1202</v>
@@ -25453,7 +25538,7 @@
         <v>1189</v>
       </c>
       <c r="F383" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="H383" t="s">
         <v>1202</v>
@@ -25476,7 +25561,7 @@
         <v>1189</v>
       </c>
       <c r="F384" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="H384" t="s">
         <v>1201</v>
@@ -25499,7 +25584,7 @@
         <v>1189</v>
       </c>
       <c r="F385" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="H385" t="s">
         <v>1201</v>
@@ -25522,7 +25607,7 @@
         <v>1189</v>
       </c>
       <c r="F386" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="J386" t="s">
         <v>1553</v>
@@ -25542,7 +25627,7 @@
         <v>1189</v>
       </c>
       <c r="F387" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="H387" t="s">
         <v>1200</v>
@@ -25565,7 +25650,7 @@
         <v>1189</v>
       </c>
       <c r="F388" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="H388" t="s">
         <v>1200</v>
@@ -25588,7 +25673,7 @@
         <v>1189</v>
       </c>
       <c r="F389" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="H389" t="s">
         <v>1200</v>
@@ -25976,7 +26061,7 @@
         <v>422</v>
       </c>
       <c r="F412" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="H412" t="s">
         <v>1191</v>
@@ -33259,7 +33344,7 @@
         <v>831</v>
       </c>
       <c r="F830" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="H830" t="s">
         <v>1344</v>
@@ -33279,7 +33364,7 @@
         <v>832</v>
       </c>
       <c r="F831" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="H831" t="s">
         <v>1345</v>
@@ -33299,7 +33384,7 @@
         <v>833</v>
       </c>
       <c r="F832" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="H832" t="s">
         <v>1344</v>
@@ -33319,7 +33404,7 @@
         <v>834</v>
       </c>
       <c r="F833" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="H833" t="s">
         <v>1346</v>
@@ -33339,7 +33424,7 @@
         <v>835</v>
       </c>
       <c r="F834" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="H834" t="s">
         <v>1346</v>
@@ -33359,7 +33444,7 @@
         <v>836</v>
       </c>
       <c r="F835" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="H835" t="s">
         <v>1347</v>
@@ -33379,7 +33464,7 @@
         <v>837</v>
       </c>
       <c r="F836" s="6" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="H836" t="s">
         <v>1348</v>
@@ -33399,7 +33484,7 @@
         <v>838</v>
       </c>
       <c r="F837" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="H837" t="s">
         <v>1349</v>
@@ -33419,7 +33504,7 @@
         <v>839</v>
       </c>
       <c r="F838" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="H838" t="s">
         <v>1349</v>
@@ -33439,7 +33524,7 @@
         <v>840</v>
       </c>
       <c r="F839" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="H839" t="s">
         <v>1349</v>
@@ -33459,7 +33544,7 @@
         <v>841</v>
       </c>
       <c r="F840" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="H840" t="s">
         <v>1350</v>
@@ -33479,7 +33564,7 @@
         <v>842</v>
       </c>
       <c r="F841" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="H841" t="s">
         <v>1350</v>
@@ -33499,7 +33584,7 @@
         <v>843</v>
       </c>
       <c r="F842" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="H842" t="s">
         <v>1350</v>
@@ -33519,7 +33604,7 @@
         <v>844</v>
       </c>
       <c r="F843" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="H843" t="s">
         <v>1350</v>
@@ -33539,7 +33624,7 @@
         <v>845</v>
       </c>
       <c r="F844" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="H844" t="s">
         <v>1350</v>
@@ -34655,7 +34740,7 @@
         <v>922</v>
       </c>
       <c r="F922" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="K922" t="s">
         <v>1769</v>
@@ -34669,7 +34754,7 @@
         <v>923</v>
       </c>
       <c r="F923" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="K923" t="s">
         <v>1769</v>
@@ -34683,7 +34768,7 @@
         <v>924</v>
       </c>
       <c r="F924" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="K924" t="s">
         <v>1769</v>
@@ -34697,7 +34782,7 @@
         <v>925</v>
       </c>
       <c r="C925" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="K925" t="s">
         <v>1769</v>
@@ -34711,7 +34796,7 @@
         <v>926</v>
       </c>
       <c r="C926" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="K926" t="s">
         <v>1769</v>
@@ -34725,7 +34810,7 @@
         <v>927</v>
       </c>
       <c r="C927" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="K927" t="s">
         <v>1769</v>
@@ -34739,7 +34824,7 @@
         <v>928</v>
       </c>
       <c r="C928" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="K928" t="s">
         <v>1769</v>
@@ -34753,7 +34838,7 @@
         <v>929</v>
       </c>
       <c r="C929" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="K929" t="s">
         <v>1769</v>

--- a/organize .xlsx
+++ b/organize .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5681" uniqueCount="1940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5700" uniqueCount="1956">
   <si>
     <t>Stars Exhibition</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6044,19 +6044,611 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Forest Series</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall the West</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle Series</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impression of Fastfood Restaurant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portrait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cat's World</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48 野木 天啟——野馬陽炎系列之一 油畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chair and People</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breeding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yin and Yang, Day and Night Being Equally separated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creating Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Between 0 to 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flouting Wing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Nights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Moon Is Sleeping on Earth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Religion and Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dun Huang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Landscape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History of Civilization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sky and Ocean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work 2</t>
+  </si>
+  <si>
+    <t>Work 3</t>
+  </si>
+  <si>
+    <t>Big Wheel 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big Wheel 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wisdom and Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philosophy Script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Culture No.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title 2</t>
+  </si>
+  <si>
+    <t>Self Portrait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Maple Illustration based on a short story </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo during Culture Revolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wei Fuyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title, No.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title, No.2</t>
+  </si>
+  <si>
+    <t>No Title, No.3</t>
+  </si>
+  <si>
+    <t>No Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northern Su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Station</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title, No.4</t>
+  </si>
+  <si>
+    <t>No Title, No.5</t>
+  </si>
+  <si>
+    <t>Performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown Book No.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown Book No.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sea Breeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shi Guo,To Penetrate Each Other,ink,1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shi Panshi,Abyss,oil on canvas,1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Ziren,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl Space No.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl Space No.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl Space No.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Seven Seven Seven " Logo, Ren Jian Design,1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Photo of the "Seven Seven Seven", from left:Shu Qun, Ren Jian, Zhang Shuguang, Lv Yin,Zhang Qiandi, Ba Wei,1984 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover of Magazine "God" from Northern Art Group,1985 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invitation of Northern Artists Group Biennial,1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene of Northern Artists Group Biennial,1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 "理性绘画专题讨论会" 现场讨论 右起：高名潞 朱青生 刘彦 王雅琳 舒群等 1987.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guest Book of Northern Artists Group Biennial,1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 "北方艺术群体双年展"合影 第一排左起：王雅琳 王碧蓉 摄制组成员 卡桑 中央台摄制组组员 刘彦 倪琪 中央台摄制组组长李少武 第二排左起 摄制组组员两人 王广义 高名潞 周彦 舒群 舒群弟 摄制组组员 1987.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 "七七七"成員聚會 左起：舒群 任戩 張曙光 呂瑛 張茜苐 巴威 1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 星星露天美展 左一曲磊磊 左二美協主席劉迅 左三李爽 左五王克平 1979</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 第二屆星星畫展成員合影于北京中國美術館 左起：石京生 陳延生 姓名不詳 曲磊磊 馬德升 王克平 北島 楊益平 黃銳 包炮 朱金石 1980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 "理性绘画专题讨论会"现场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 王广义 凝固的北方极地系列·15号 油画 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Frozen North Pole  No.15, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17 王广义 后古典·信仰的时代 中世纪 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Post Classical: Era of Faith Medieval, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Post Classical:The Return of Tragic Love, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Post Classical: Cross Came Down, oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Post Classical: Holy Communion, oil on canvas,1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22 舒群 作品三号 油画 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu Qun, Work No.3, oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 舒群 绝对原则系列·4号 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu Qun, Absolute Principle No.4,oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu Qun, Absolute Principle,oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu Qun, Endless Road No.6, oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ren Jian, Legend of Sirius No.1,ink, 1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ren Jian,Haven, Earth, and Hell No.1,oil on canvas, 1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lin Wei,Structure of Rouault No.1,oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Yalin,Landscape,oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 王海燕两个角度的自画像 油画 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Haiyan,Self-portrait from 2 Angles,oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Youth Year, Jiangsu Youth Art Week,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiangsu Youth Art Week,Large Modern Art Exhibition,exhibition contract,1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiangsu Youth Art Week,Large Modern Art Exhibition,scence 1, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu Xiaoyun, Repeatation, Cutted Apple, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu Xiaoyun, Seeing Sky through Yellow Hands, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ren Rong, The hand together with the shadow Is Seeking Suviving, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu Weide, Corrosive Laugh, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu Yihui, Southern Moleyate, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiang Songzhu, Final Persue=Vain, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"White Sail Art Photography Exhibition" Album, cover,1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"White Sail Art Photography Exhibition" Album, content 1,1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"White Sail Art Photography Exhibition" Album, content 2,1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yang Zhilin, Constellation, composite materials, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chai Xiaogang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialoge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 包劍斐 新空間2號 版畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv Tao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geng Jianli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Pipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haircut 4--Fashinable Style in Summer in 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Song Lin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>People Pipe 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silent Dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cha Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cha Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu Jin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guojun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27 張培力 《褐皮書一號》實行過程·在郵件封皮上書寫收件人姓名及地址 1988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 張培力 《褐皮書一號》實行過程45·講郵件送入郵筒 1988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 龔建慶 哈雷彗星 版畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiao Gu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tear the sky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 楊暉 沒有日期的東方節日 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19 《首屆上海青年美術作品展作品選》封面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 《海平線'86》册頁封面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jian Jun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44 陳箴 無題 油畫 1983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yu Sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mask No.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Jieming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Lianling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Shan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yu Youlian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhao Yifu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hong Jijie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen Zhen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fang Zhuang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ye Mu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shen Fan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Hui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhou Peide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Song Haidong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Jieming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">No.2  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Forest Series</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Primitive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title</t>
+    <t>Li Shan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6064,43 +6656,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Recall the West</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Circle Series</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Impression of Fastfood Restaurant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Portrait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cat's World</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48 野木 天啟——野馬陽炎系列之一 油畫 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chair and People</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breeding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yin and Yang, Day and Night Being Equally separated</t>
+    <t>Qi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revelation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revelation-Horse and Sun Series</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ye Mu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhou Changjiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mo Tuo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6108,543 +6684,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Creating Object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Between 0 to 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flouting Wing</t>
+    <t>Xiao Xiaolan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu Hong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Liang </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yu Jiangang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lei Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun Liang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Strange Landscape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>White Nights</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Moon Is Sleeping on Earth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Religion and Science</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dun Huang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Landscape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>History of Civilization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sky and Ocean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work 2</t>
-  </si>
-  <si>
-    <t>Work 3</t>
-  </si>
-  <si>
-    <t>Big Wheel 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Big Wheel 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wisdom and Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Philosophy Script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Culture No.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title 2</t>
-  </si>
-  <si>
-    <t>Self Portrait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Maple Illustration based on a short story </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo during Culture Revolution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wei Fuyi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title, No.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title, No.2</t>
-  </si>
-  <si>
-    <t>No Title, No.3</t>
-  </si>
-  <si>
-    <t>No Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Northern Su</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Station</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title, No.4</t>
-  </si>
-  <si>
-    <t>No Title, No.5</t>
-  </si>
-  <si>
-    <t>Performance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brown Book No.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brown Book No.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sea Breeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shi Guo,To Penetrate Each Other,ink,1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shi Panshi,Abyss,oil on canvas,1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Li Ziren,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Girl Space No.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Girl Space No.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Girl Space No.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Seven Seven Seven " Logo, Ren Jian Design,1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Group Photo of the "Seven Seven Seven", from left:Shu Qun, Ren Jian, Zhang Shuguang, Lv Yin,Zhang Qiandi, Ba Wei,1984 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover of Magazine "God" from Northern Art Group,1985 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invitation of Northern Artists Group Biennial,1987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene of Northern Artists Group Biennial,1987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 "理性绘画专题讨论会" 现场讨论 右起：高名潞 朱青生 刘彦 王雅琳 舒群等 1987.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guest Book of Northern Artists Group Biennial,1987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 "北方艺术群体双年展"合影 第一排左起：王雅琳 王碧蓉 摄制组成员 卡桑 中央台摄制组组员 刘彦 倪琪 中央台摄制组组长李少武 第二排左起 摄制组组员两人 王广义 高名潞 周彦 舒群 舒群弟 摄制组组员 1987.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 "七七七"成員聚會 左起：舒群 任戩 張曙光 呂瑛 張茜苐 巴威 1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 星星露天美展 左一曲磊磊 左二美協主席劉迅 左三李爽 左五王克平 1979</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 第二屆星星畫展成員合影于北京中國美術館 左起：石京生 陳延生 姓名不詳 曲磊磊 馬德升 王克平 北島 楊益平 黃銳 包炮 朱金石 1980</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 "理性绘画专题讨论会"现场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 王广义 凝固的北方极地系列·15号 油画 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Frozen North Pole  No.15, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17 王广义 后古典·信仰的时代 中世纪 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Post Classical: Era of Faith Medieval, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Post Classical:The Return of Tragic Love, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Post Classical: Cross Came Down, oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Post Classical: Holy Communion, oil on canvas,1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22 舒群 作品三号 油画 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shu Qun, Work No.3, oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23 舒群 绝对原则系列·4号 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shu Qun, Absolute Principle No.4,oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shu Qun, Absolute Principle,oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shu Qun, Endless Road No.6, oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ren Jian, Legend of Sirius No.1,ink, 1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ren Jian,Haven, Earth, and Hell No.1,oil on canvas, 1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lin Wei,Structure of Rouault No.1,oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Yalin,Landscape,oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50 王海燕两个角度的自画像 油画 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Haiyan,Self-portrait from 2 Angles,oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>International Youth Year, Jiangsu Youth Art Week,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiangsu Youth Art Week,Large Modern Art Exhibition,exhibition contract,1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiangsu Youth Art Week,Large Modern Art Exhibition,scence 1, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wu Xiaoyun, Repeatation, Cutted Apple, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wu Xiaoyun, Seeing Sky through Yellow Hands, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ren Rong, The hand together with the shadow Is Seeking Suviving, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xu Weide, Corrosive Laugh, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xu Yihui, Southern Moleyate, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiang Songzhu, Final Persue=Vain, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"White Sail Art Photography Exhibition" Album, cover,1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"White Sail Art Photography Exhibition" Album, content 1,1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"White Sail Art Photography Exhibition" Album, content 2,1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yang Zhilin, Constellation, composite materials, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chai Xiaogang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Autumn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialoge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 包劍斐 新空間2號 版畫 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv Tao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geng Jianli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>White Pipe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haircut 4--Fashinable Style in Summer in 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Song Lin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>People Pipe 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silent Dialogue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cha Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cha Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xu Jin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guojun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27 張培力 《褐皮書一號》實行過程·在郵件封皮上書寫收件人姓名及地址 1988</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28 張培力 《褐皮書一號》實行過程45·講郵件送入郵筒 1988</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 龔建慶 哈雷彗星 版畫 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xiao Gu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Halley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reverie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tear the sky</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 楊暉 沒有日期的東方節日 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19 《首屆上海青年美術作品展作品選》封面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 《海平線'86》册頁封面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jian Jun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44 陳箴 無題 油畫 1983</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yu Sen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mask No.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhang Jieming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Lianling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Li Shan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Li Shan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yu Youlian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhao Yifu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hong Jijie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chen Zhen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chen Zhen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16731,9 +16795,9 @@
   <dimension ref="A1:N1051"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C271" sqref="C271"/>
+      <selection pane="bottomLeft" activeCell="F312" sqref="F312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17029,7 +17093,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="C12" t="s">
         <v>1415</v>
@@ -17055,7 +17119,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="C13" t="s">
         <v>1416</v>
@@ -17471,7 +17535,7 @@
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="G26" t="s">
         <v>1092</v>
@@ -17732,7 +17796,7 @@
         <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="D41" t="s">
         <v>1296</v>
@@ -17761,7 +17825,7 @@
         <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="D42" t="s">
         <v>1296</v>
@@ -17790,7 +17854,7 @@
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="D43" t="s">
         <v>1296</v>
@@ -17799,7 +17863,7 @@
         <v>1446</v>
       </c>
       <c r="F43" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="G43" t="s">
         <v>1768</v>
@@ -17828,7 +17892,7 @@
         <v>1446</v>
       </c>
       <c r="F44" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="G44" t="s">
         <v>1362</v>
@@ -17857,7 +17921,7 @@
         <v>1446</v>
       </c>
       <c r="F45" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="G45" t="s">
         <v>1767</v>
@@ -17971,7 +18035,7 @@
         <v>1587</v>
       </c>
       <c r="C51" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="D51" t="s">
         <v>1296</v>
@@ -18014,10 +18078,10 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="C53" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="D53" t="s">
         <v>1295</v>
@@ -18037,7 +18101,7 @@
         <v>1594</v>
       </c>
       <c r="C54" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="D54" t="s">
         <v>1297</v>
@@ -18054,7 +18118,7 @@
         <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="D55" t="s">
         <v>1295</v>
@@ -18071,7 +18135,7 @@
         <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="D56" t="s">
         <v>1298</v>
@@ -18088,7 +18152,7 @@
         <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
       <c r="D57" t="s">
         <v>1297</v>
@@ -18102,7 +18166,7 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="C58" t="s">
         <v>1595</v>
@@ -18116,7 +18180,7 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="D59" t="s">
         <v>1299</v>
@@ -18130,7 +18194,7 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="D60" t="s">
         <v>1300</v>
@@ -18144,10 +18208,10 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
       <c r="C61" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="D61" t="s">
         <v>1301</v>
@@ -18274,10 +18338,10 @@
         <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="C66" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="D66" t="s">
         <v>1301</v>
@@ -18303,7 +18367,7 @@
         <v>1360</v>
       </c>
       <c r="C67" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="D67" t="s">
         <v>1301</v>
@@ -18329,7 +18393,7 @@
         <v>1364</v>
       </c>
       <c r="C68" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="D68" t="s">
         <v>1301</v>
@@ -18381,7 +18445,7 @@
         <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="D70" t="s">
         <v>1301</v>
@@ -18404,10 +18468,10 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="C71" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="D71" t="s">
         <v>1301</v>
@@ -18430,10 +18494,10 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="C72" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
       <c r="D72" t="s">
         <v>1301</v>
@@ -18459,7 +18523,7 @@
         <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
       <c r="D73" t="s">
         <v>1301</v>
@@ -18485,7 +18549,7 @@
         <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
       <c r="D74" t="s">
         <v>1301</v>
@@ -18511,7 +18575,7 @@
         <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
       <c r="D75" t="s">
         <v>1301</v>
@@ -18719,7 +18783,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>1882</v>
+        <v>1876</v>
       </c>
       <c r="D83" t="s">
         <v>1301</v>
@@ -18849,7 +18913,7 @@
         <v>105</v>
       </c>
       <c r="C88" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="D88" t="s">
         <v>1301</v>
@@ -19109,7 +19173,7 @@
         <v>115</v>
       </c>
       <c r="C98" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="D98" t="s">
         <v>1301</v>
@@ -19129,10 +19193,10 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="C99" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="D99" t="s">
         <v>1301</v>
@@ -19163,7 +19227,7 @@
         <v>117</v>
       </c>
       <c r="C101" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="D101" t="s">
         <v>1295</v>
@@ -19180,7 +19244,7 @@
         <v>118</v>
       </c>
       <c r="C102" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
       <c r="D102" t="s">
         <v>1302</v>
@@ -19197,7 +19261,7 @@
         <v>119</v>
       </c>
       <c r="C103" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="D103" t="s">
         <v>1298</v>
@@ -19370,7 +19434,7 @@
         <v>129</v>
       </c>
       <c r="C113" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
       <c r="D113" t="s">
         <v>1296</v>
@@ -19393,7 +19457,7 @@
         <v>130</v>
       </c>
       <c r="C114" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
       <c r="D114" t="s">
         <v>1306</v>
@@ -19416,7 +19480,7 @@
         <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
       <c r="D115" t="s">
         <v>1306</v>
@@ -19439,7 +19503,7 @@
         <v>1399</v>
       </c>
       <c r="C116" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
       <c r="D116" t="s">
         <v>1306</v>
@@ -19485,7 +19549,7 @@
         <v>134</v>
       </c>
       <c r="C118" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
       <c r="D118" t="s">
         <v>1306</v>
@@ -19508,7 +19572,7 @@
         <v>135</v>
       </c>
       <c r="C119" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
       <c r="D119" t="s">
         <v>1306</v>
@@ -19531,7 +19595,7 @@
         <v>136</v>
       </c>
       <c r="C120" t="s">
-        <v>1896</v>
+        <v>1890</v>
       </c>
       <c r="D120" t="s">
         <v>1307</v>
@@ -19548,7 +19612,7 @@
         <v>137</v>
       </c>
       <c r="C121" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
       <c r="D121" t="s">
         <v>1307</v>
@@ -19565,7 +19629,7 @@
         <v>138</v>
       </c>
       <c r="C122" t="s">
-        <v>1898</v>
+        <v>1892</v>
       </c>
       <c r="D122" t="s">
         <v>1307</v>
@@ -20402,7 +20466,7 @@
         <v>174</v>
       </c>
       <c r="C158" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="D158" t="s">
         <v>1301</v>
@@ -20609,7 +20673,7 @@
         <v>183</v>
       </c>
       <c r="C167" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
       <c r="D167" t="s">
         <v>1301</v>
@@ -21005,7 +21069,7 @@
         <v>1301</v>
       </c>
       <c r="F182" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="H182" t="s">
         <v>1161</v>
@@ -21083,7 +21147,7 @@
         <v>1301</v>
       </c>
       <c r="F185" t="s">
-        <v>1902</v>
+        <v>1896</v>
       </c>
       <c r="H185" t="s">
         <v>1164</v>
@@ -21109,7 +21173,7 @@
         <v>1301</v>
       </c>
       <c r="F186" t="s">
-        <v>1903</v>
+        <v>1897</v>
       </c>
       <c r="H186" t="s">
         <v>1166</v>
@@ -21311,7 +21375,7 @@
         <v>210</v>
       </c>
       <c r="C194" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
       <c r="D194" t="s">
         <v>1301</v>
@@ -21374,7 +21438,7 @@
         <v>1171</v>
       </c>
       <c r="F197" t="s">
-        <v>1906</v>
+        <v>1900</v>
       </c>
       <c r="H197" t="s">
         <v>1171</v>
@@ -21486,10 +21550,10 @@
         <v>217</v>
       </c>
       <c r="C202" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="F202" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="H202" t="s">
         <v>1173</v>
@@ -21509,10 +21573,10 @@
         <v>218</v>
       </c>
       <c r="C203" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="F203" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
       <c r="H203" t="s">
         <v>1173</v>
@@ -21535,7 +21599,7 @@
         <v>1173</v>
       </c>
       <c r="F204" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="H204" t="s">
         <v>1173</v>
@@ -21558,7 +21622,7 @@
         <v>1173</v>
       </c>
       <c r="F205" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
       <c r="H205" t="s">
         <v>1173</v>
@@ -21621,7 +21685,7 @@
         <v>15</v>
       </c>
       <c r="B208" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="C208" t="s">
         <v>1174</v>
@@ -21716,7 +21780,7 @@
         <v>227</v>
       </c>
       <c r="C212" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="F212" t="s">
         <v>1772</v>
@@ -21739,7 +21803,7 @@
         <v>228</v>
       </c>
       <c r="C213" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
       <c r="F213" t="s">
         <v>1773</v>
@@ -21762,7 +21826,7 @@
         <v>229</v>
       </c>
       <c r="C214" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="F214" t="s">
         <v>1774</v>
@@ -21785,7 +21849,7 @@
         <v>230</v>
       </c>
       <c r="C215" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="F215" t="s">
         <v>1775</v>
@@ -21854,7 +21918,7 @@
         <v>233</v>
       </c>
       <c r="C218" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
       <c r="F218" t="s">
         <v>1778</v>
@@ -21926,10 +21990,10 @@
         <v>1171</v>
       </c>
       <c r="F221" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="G221" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="H221" t="s">
         <v>1171</v>
@@ -21946,16 +22010,16 @@
         <v>1050</v>
       </c>
       <c r="B222" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="C222" t="s">
         <v>1171</v>
       </c>
       <c r="F222" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="G222" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="H222" t="s">
         <v>1171</v>
@@ -21972,16 +22036,16 @@
         <v>1</v>
       </c>
       <c r="B223" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
       <c r="C223" t="s">
         <v>1171</v>
       </c>
       <c r="F223" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="G223" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="J223" t="s">
         <v>1556</v>
@@ -22072,7 +22136,7 @@
         <v>242</v>
       </c>
       <c r="C228" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="H228" t="s">
         <v>1183</v>
@@ -22112,13 +22176,13 @@
         <v>8</v>
       </c>
       <c r="B230" t="s">
-        <v>1919</v>
+        <v>1913</v>
       </c>
       <c r="C230" t="s">
         <v>1183</v>
       </c>
       <c r="F230" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="H230" t="s">
         <v>1183</v>
@@ -22164,7 +22228,7 @@
         <v>1183</v>
       </c>
       <c r="F232" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
       <c r="H232" t="s">
         <v>1184</v>
@@ -22210,7 +22274,7 @@
         <v>1184</v>
       </c>
       <c r="F234" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
       <c r="H234" t="s">
         <v>1184</v>
@@ -22267,7 +22331,7 @@
         <v>15</v>
       </c>
       <c r="B237" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="C237" t="s">
         <v>1185</v>
@@ -22387,7 +22451,7 @@
         <v>21</v>
       </c>
       <c r="B243" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="D243" t="s">
         <v>1138</v>
@@ -22401,7 +22465,7 @@
         <v>22</v>
       </c>
       <c r="B244" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
       <c r="D244" t="s">
         <v>1136</v>
@@ -22530,7 +22594,7 @@
         <v>267</v>
       </c>
       <c r="C253" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="D253" t="s">
         <v>1136</v>
@@ -22590,13 +22654,13 @@
         <v>270</v>
       </c>
       <c r="C256" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
       <c r="D256" t="s">
         <v>1188</v>
       </c>
       <c r="F256" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
       <c r="G256" t="s">
         <v>1785</v>
@@ -22619,7 +22683,7 @@
         <v>271</v>
       </c>
       <c r="C257" t="s">
-        <v>1931</v>
+        <v>1938</v>
       </c>
       <c r="D257" t="s">
         <v>1187</v>
@@ -22645,7 +22709,7 @@
         <v>272</v>
       </c>
       <c r="C258" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
       <c r="D258" t="s">
         <v>1187</v>
@@ -22671,13 +22735,13 @@
         <v>273</v>
       </c>
       <c r="C259" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
       <c r="D259" t="s">
         <v>1187</v>
       </c>
       <c r="F259" t="s">
-        <v>1787</v>
+        <v>1939</v>
       </c>
       <c r="H259" t="s">
         <v>1531</v>
@@ -22697,13 +22761,13 @@
         <v>274</v>
       </c>
       <c r="C260" t="s">
-        <v>1932</v>
+        <v>1926</v>
       </c>
       <c r="D260" t="s">
         <v>1187</v>
       </c>
       <c r="F260" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="H260" t="s">
         <v>1532</v>
@@ -22723,13 +22787,13 @@
         <v>275</v>
       </c>
       <c r="C261" t="s">
-        <v>1933</v>
+        <v>1940</v>
       </c>
       <c r="D261" t="s">
         <v>1187</v>
       </c>
       <c r="F261" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="H261" t="s">
         <v>1470</v>
@@ -22749,13 +22813,13 @@
         <v>276</v>
       </c>
       <c r="C262" t="s">
-        <v>1934</v>
+        <v>1927</v>
       </c>
       <c r="D262" t="s">
         <v>1187</v>
       </c>
       <c r="F262" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="H262" t="s">
         <v>1470</v>
@@ -22775,13 +22839,13 @@
         <v>277</v>
       </c>
       <c r="C263" t="s">
-        <v>1934</v>
+        <v>1927</v>
       </c>
       <c r="D263" t="s">
         <v>1187</v>
       </c>
       <c r="F263" t="s">
-        <v>1791</v>
+        <v>1941</v>
       </c>
       <c r="H263" t="s">
         <v>1470</v>
@@ -22801,13 +22865,13 @@
         <v>278</v>
       </c>
       <c r="C264" t="s">
-        <v>1935</v>
+        <v>1928</v>
       </c>
       <c r="D264" t="s">
         <v>1187</v>
       </c>
       <c r="F264" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="H264" t="s">
         <v>1533</v>
@@ -22827,13 +22891,13 @@
         <v>279</v>
       </c>
       <c r="C265" t="s">
-        <v>1936</v>
+        <v>1929</v>
       </c>
       <c r="D265" t="s">
         <v>1187</v>
       </c>
       <c r="F265" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="H265" t="s">
         <v>1534</v>
@@ -22853,13 +22917,13 @@
         <v>280</v>
       </c>
       <c r="C266" t="s">
-        <v>1937</v>
+        <v>1930</v>
       </c>
       <c r="D266" t="s">
         <v>1187</v>
       </c>
       <c r="F266" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="H266" t="s">
         <v>1535</v>
@@ -22879,13 +22943,13 @@
         <v>281</v>
       </c>
       <c r="C267" t="s">
-        <v>1938</v>
+        <v>1931</v>
       </c>
       <c r="D267" t="s">
         <v>1187</v>
       </c>
       <c r="F267" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="H267" t="s">
         <v>1536</v>
@@ -22902,16 +22966,16 @@
         <v>46</v>
       </c>
       <c r="B268" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="C268" t="s">
-        <v>1939</v>
+        <v>1931</v>
       </c>
       <c r="D268" t="s">
         <v>1187</v>
       </c>
       <c r="F268" t="s">
-        <v>1796</v>
+        <v>1789</v>
       </c>
       <c r="H268" t="s">
         <v>1536</v>
@@ -22931,10 +22995,13 @@
         <v>283</v>
       </c>
       <c r="C269" t="s">
-        <v>1939</v>
+        <v>1931</v>
       </c>
       <c r="D269" t="s">
         <v>1187</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1942</v>
       </c>
       <c r="H269" t="s">
         <v>1536</v>
@@ -22954,10 +23021,13 @@
         <v>284</v>
       </c>
       <c r="C270" t="s">
-        <v>1939</v>
+        <v>1931</v>
       </c>
       <c r="D270" t="s">
         <v>1187</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1942</v>
       </c>
       <c r="H270" t="s">
         <v>1536</v>
@@ -22976,11 +23046,14 @@
       <c r="B271" t="s">
         <v>285</v>
       </c>
+      <c r="C271" t="s">
+        <v>1932</v>
+      </c>
       <c r="D271" t="s">
         <v>1187</v>
       </c>
       <c r="F271" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="H271" t="s">
         <v>1537</v>
@@ -22997,10 +23070,16 @@
         <v>50</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>1798</v>
+        <v>1795</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1945</v>
       </c>
       <c r="D272" t="s">
         <v>1187</v>
+      </c>
+      <c r="F272" t="s">
+        <v>1944</v>
       </c>
       <c r="H272" t="s">
         <v>1538</v>
@@ -23019,8 +23098,14 @@
       <c r="B273" s="6" t="s">
         <v>287</v>
       </c>
+      <c r="C273" t="s">
+        <v>1933</v>
+      </c>
       <c r="D273" t="s">
         <v>1187</v>
+      </c>
+      <c r="F273" t="s">
+        <v>1943</v>
       </c>
       <c r="H273" t="s">
         <v>1538</v>
@@ -23039,11 +23124,14 @@
       <c r="B274" t="s">
         <v>288</v>
       </c>
+      <c r="C274" t="s">
+        <v>1934</v>
+      </c>
       <c r="D274" t="s">
         <v>1187</v>
       </c>
       <c r="F274" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="H274" t="s">
         <v>1539</v>
@@ -23062,11 +23150,14 @@
       <c r="B275" t="s">
         <v>289</v>
       </c>
+      <c r="C275" t="s">
+        <v>1946</v>
+      </c>
       <c r="D275" t="s">
         <v>1187</v>
       </c>
       <c r="F275" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="H275" t="s">
         <v>1540</v>
@@ -23085,11 +23176,14 @@
       <c r="B276" t="s">
         <v>290</v>
       </c>
+      <c r="C276" t="s">
+        <v>1947</v>
+      </c>
       <c r="D276" t="s">
         <v>1187</v>
       </c>
       <c r="F276" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="H276" t="s">
         <v>1541</v>
@@ -23108,11 +23202,14 @@
       <c r="B277" t="s">
         <v>291</v>
       </c>
+      <c r="C277" t="s">
+        <v>1935</v>
+      </c>
       <c r="D277" t="s">
         <v>1187</v>
       </c>
       <c r="F277" t="s">
-        <v>1802</v>
+        <v>1948</v>
       </c>
       <c r="H277" t="s">
         <v>1542</v>
@@ -23131,6 +23228,9 @@
       <c r="B278" s="6" t="s">
         <v>292</v>
       </c>
+      <c r="C278" t="s">
+        <v>1936</v>
+      </c>
       <c r="D278" t="s">
         <v>1187</v>
       </c>
@@ -23151,11 +23251,14 @@
       <c r="B279" t="s">
         <v>293</v>
       </c>
+      <c r="C279" t="s">
+        <v>1937</v>
+      </c>
       <c r="D279" t="s">
         <v>1187</v>
       </c>
       <c r="F279" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
       <c r="H279" t="s">
         <v>1544</v>
@@ -23174,11 +23277,14 @@
       <c r="B280" t="s">
         <v>294</v>
       </c>
+      <c r="C280" t="s">
+        <v>1949</v>
+      </c>
       <c r="D280" t="s">
         <v>1187</v>
       </c>
       <c r="F280" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="H280" t="s">
         <v>1545</v>
@@ -23197,11 +23303,14 @@
       <c r="B281" t="s">
         <v>295</v>
       </c>
+      <c r="C281" t="s">
+        <v>1953</v>
+      </c>
       <c r="D281" t="s">
         <v>1187</v>
       </c>
       <c r="F281" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="H281" t="s">
         <v>1546</v>
@@ -23220,11 +23329,14 @@
       <c r="B282" t="s">
         <v>296</v>
       </c>
+      <c r="C282" t="s">
+        <v>1950</v>
+      </c>
       <c r="D282" t="s">
         <v>1187</v>
       </c>
       <c r="F282" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
       <c r="H282" t="s">
         <v>1547</v>
@@ -23243,11 +23355,14 @@
       <c r="B283" t="s">
         <v>297</v>
       </c>
+      <c r="C283" t="s">
+        <v>1954</v>
+      </c>
       <c r="D283" t="s">
         <v>1187</v>
       </c>
       <c r="F283" t="s">
-        <v>1806</v>
+        <v>1789</v>
       </c>
       <c r="H283" t="s">
         <v>1548</v>
@@ -23266,8 +23381,11 @@
       <c r="B284" t="s">
         <v>298</v>
       </c>
+      <c r="C284" t="s">
+        <v>1951</v>
+      </c>
       <c r="F284" t="s">
-        <v>1807</v>
+        <v>1802</v>
       </c>
       <c r="H284" t="s">
         <v>1548</v>
@@ -23286,8 +23404,11 @@
       <c r="B285" t="s">
         <v>299</v>
       </c>
+      <c r="C285" t="s">
+        <v>1952</v>
+      </c>
       <c r="F285" t="s">
-        <v>1808</v>
+        <v>1955</v>
       </c>
       <c r="H285" t="s">
         <v>1549</v>
@@ -24254,7 +24375,7 @@
         <v>1142</v>
       </c>
       <c r="F323" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="G323" t="s">
         <v>1767</v>
@@ -24283,7 +24404,7 @@
         <v>1187</v>
       </c>
       <c r="F324" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
       <c r="G324" t="s">
         <v>1767</v>
@@ -24312,7 +24433,7 @@
         <v>1187</v>
       </c>
       <c r="F325" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="G325" t="s">
         <v>1767</v>
@@ -24341,7 +24462,7 @@
         <v>1187</v>
       </c>
       <c r="F326" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="G326" t="s">
         <v>1767</v>
@@ -24370,7 +24491,7 @@
         <v>1187</v>
       </c>
       <c r="F327" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="G327" t="s">
         <v>1767</v>
@@ -24422,7 +24543,7 @@
         <v>1187</v>
       </c>
       <c r="F329" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="G329" t="s">
         <v>1767</v>
@@ -24474,7 +24595,7 @@
         <v>1187</v>
       </c>
       <c r="F331" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="H331" t="s">
         <v>1197</v>
@@ -24500,7 +24621,7 @@
         <v>1187</v>
       </c>
       <c r="F332" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
       <c r="H332" t="s">
         <v>1197</v>
@@ -24595,7 +24716,7 @@
         <v>1187</v>
       </c>
       <c r="F336" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="H336" t="s">
         <v>1197</v>
@@ -24621,7 +24742,7 @@
         <v>1187</v>
       </c>
       <c r="F337" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="H337" t="s">
         <v>1197</v>
@@ -24647,7 +24768,7 @@
         <v>1187</v>
       </c>
       <c r="F338" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="H338" t="s">
         <v>1197</v>
@@ -24673,7 +24794,7 @@
         <v>1187</v>
       </c>
       <c r="F339" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="H339" t="s">
         <v>1197</v>
@@ -24745,7 +24866,7 @@
         <v>1187</v>
       </c>
       <c r="F342" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="H342" t="s">
         <v>1197</v>
@@ -24863,7 +24984,7 @@
         <v>1187</v>
       </c>
       <c r="F347" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="H347" t="s">
         <v>1197</v>
@@ -24912,7 +25033,7 @@
         <v>1187</v>
       </c>
       <c r="F349" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="H349" t="s">
         <v>1198</v>
@@ -24938,7 +25059,7 @@
         <v>1187</v>
       </c>
       <c r="F350" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="H350" t="s">
         <v>1198</v>
@@ -24964,7 +25085,7 @@
         <v>1187</v>
       </c>
       <c r="F351" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="H351" t="s">
         <v>1198</v>
@@ -24990,7 +25111,7 @@
         <v>1187</v>
       </c>
       <c r="F352" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="H352" t="s">
         <v>1199</v>
@@ -25016,7 +25137,7 @@
         <v>1187</v>
       </c>
       <c r="F353" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="H353" t="s">
         <v>1199</v>
@@ -25492,7 +25613,7 @@
         <v>1189</v>
       </c>
       <c r="F381" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="H381" t="s">
         <v>1202</v>
@@ -25515,7 +25636,7 @@
         <v>1189</v>
       </c>
       <c r="F382" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
       <c r="H382" t="s">
         <v>1202</v>
@@ -25538,7 +25659,7 @@
         <v>1189</v>
       </c>
       <c r="F383" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="H383" t="s">
         <v>1202</v>
@@ -25561,7 +25682,7 @@
         <v>1189</v>
       </c>
       <c r="F384" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="H384" t="s">
         <v>1201</v>
@@ -25584,7 +25705,7 @@
         <v>1189</v>
       </c>
       <c r="F385" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="H385" t="s">
         <v>1201</v>
@@ -25607,7 +25728,7 @@
         <v>1189</v>
       </c>
       <c r="F386" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
       <c r="J386" t="s">
         <v>1553</v>
@@ -25627,7 +25748,7 @@
         <v>1189</v>
       </c>
       <c r="F387" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="H387" t="s">
         <v>1200</v>
@@ -25650,7 +25771,7 @@
         <v>1189</v>
       </c>
       <c r="F388" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="H388" t="s">
         <v>1200</v>
@@ -25673,7 +25794,7 @@
         <v>1189</v>
       </c>
       <c r="F389" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="H389" t="s">
         <v>1200</v>
@@ -26061,7 +26182,7 @@
         <v>422</v>
       </c>
       <c r="F412" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
       <c r="H412" t="s">
         <v>1191</v>
@@ -33344,7 +33465,7 @@
         <v>831</v>
       </c>
       <c r="F830" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="H830" t="s">
         <v>1344</v>
@@ -33364,7 +33485,7 @@
         <v>832</v>
       </c>
       <c r="F831" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="H831" t="s">
         <v>1345</v>
@@ -33384,7 +33505,7 @@
         <v>833</v>
       </c>
       <c r="F832" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="H832" t="s">
         <v>1344</v>
@@ -33404,7 +33525,7 @@
         <v>834</v>
       </c>
       <c r="F833" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="H833" t="s">
         <v>1346</v>
@@ -33424,7 +33545,7 @@
         <v>835</v>
       </c>
       <c r="F834" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="H834" t="s">
         <v>1346</v>
@@ -33444,7 +33565,7 @@
         <v>836</v>
       </c>
       <c r="F835" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="H835" t="s">
         <v>1347</v>
@@ -33464,7 +33585,7 @@
         <v>837</v>
       </c>
       <c r="F836" s="6" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="H836" t="s">
         <v>1348</v>
@@ -33484,7 +33605,7 @@
         <v>838</v>
       </c>
       <c r="F837" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="H837" t="s">
         <v>1349</v>
@@ -33504,7 +33625,7 @@
         <v>839</v>
       </c>
       <c r="F838" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="H838" t="s">
         <v>1349</v>
@@ -33524,7 +33645,7 @@
         <v>840</v>
       </c>
       <c r="F839" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="H839" t="s">
         <v>1349</v>
@@ -33544,7 +33665,7 @@
         <v>841</v>
       </c>
       <c r="F840" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="H840" t="s">
         <v>1350</v>
@@ -33564,7 +33685,7 @@
         <v>842</v>
       </c>
       <c r="F841" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="H841" t="s">
         <v>1350</v>
@@ -33584,7 +33705,7 @@
         <v>843</v>
       </c>
       <c r="F842" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="H842" t="s">
         <v>1350</v>
@@ -33604,7 +33725,7 @@
         <v>844</v>
       </c>
       <c r="F843" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="H843" t="s">
         <v>1350</v>
@@ -33624,7 +33745,7 @@
         <v>845</v>
       </c>
       <c r="F844" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="H844" t="s">
         <v>1350</v>
@@ -34740,7 +34861,7 @@
         <v>922</v>
       </c>
       <c r="F922" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="K922" t="s">
         <v>1769</v>
@@ -34754,7 +34875,7 @@
         <v>923</v>
       </c>
       <c r="F923" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="K923" t="s">
         <v>1769</v>
@@ -34768,7 +34889,7 @@
         <v>924</v>
       </c>
       <c r="F924" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="K924" t="s">
         <v>1769</v>
@@ -34782,7 +34903,7 @@
         <v>925</v>
       </c>
       <c r="C925" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="K925" t="s">
         <v>1769</v>
@@ -34796,7 +34917,7 @@
         <v>926</v>
       </c>
       <c r="C926" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="K926" t="s">
         <v>1769</v>
@@ -34810,7 +34931,7 @@
         <v>927</v>
       </c>
       <c r="C927" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="K927" t="s">
         <v>1769</v>
@@ -34824,7 +34945,7 @@
         <v>928</v>
       </c>
       <c r="C928" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="K928" t="s">
         <v>1769</v>
@@ -34838,7 +34959,7 @@
         <v>929</v>
       </c>
       <c r="C929" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="K929" t="s">
         <v>1769</v>

--- a/organize .xlsx
+++ b/organize .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5709" uniqueCount="1968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5712" uniqueCount="1980">
   <si>
     <t>Stars Exhibition</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6084,19 +6084,595 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Creating Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Between 0 to 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flouting Wing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Landscape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work 2</t>
+  </si>
+  <si>
+    <t>Work 3</t>
+  </si>
+  <si>
+    <t>Big Wheel 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big Wheel 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wisdom and Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philosophy Script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Culture No.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title 2</t>
+  </si>
+  <si>
+    <t>Self Portrait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Maple Illustration based on a short story </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo during Culture Revolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wei Fuyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title, No.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title, No.2</t>
+  </si>
+  <si>
+    <t>No Title, No.3</t>
+  </si>
+  <si>
     <t>No Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Creating Object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Between 0 to 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flouting Wing</t>
+    <t>Northern Su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Station</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title, No.4</t>
+  </si>
+  <si>
+    <t>No Title, No.5</t>
+  </si>
+  <si>
+    <t>Performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown Book No.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown Book No.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sea Breeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shi Guo,To Penetrate Each Other,ink,1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shi Panshi,Abyss,oil on canvas,1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Ziren,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl Space No.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl Space No.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl Space No.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Seven Seven Seven " Logo, Ren Jian Design,1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Photo of the "Seven Seven Seven", from left:Shu Qun, Ren Jian, Zhang Shuguang, Lv Yin,Zhang Qiandi, Ba Wei,1984 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover of Magazine "God" from Northern Art Group,1985 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invitation of Northern Artists Group Biennial,1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene of Northern Artists Group Biennial,1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 "理性绘画专题讨论会" 现场讨论 右起：高名潞 朱青生 刘彦 王雅琳 舒群等 1987.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guest Book of Northern Artists Group Biennial,1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 "北方艺术群体双年展"合影 第一排左起：王雅琳 王碧蓉 摄制组成员 卡桑 中央台摄制组组员 刘彦 倪琪 中央台摄制组组长李少武 第二排左起 摄制组组员两人 王广义 高名潞 周彦 舒群 舒群弟 摄制组组员 1987.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 "七七七"成員聚會 左起：舒群 任戩 張曙光 呂瑛 張茜苐 巴威 1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 星星露天美展 左一曲磊磊 左二美協主席劉迅 左三李爽 左五王克平 1979</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 第二屆星星畫展成員合影于北京中國美術館 左起：石京生 陳延生 姓名不詳 曲磊磊 馬德升 王克平 北島 楊益平 黃銳 包炮 朱金石 1980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 "理性绘画专题讨论会"现场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 王广义 凝固的北方极地系列·15号 油画 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Frozen North Pole  No.15, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17 王广义 后古典·信仰的时代 中世纪 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Post Classical: Era of Faith Medieval, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Post Classical:The Return of Tragic Love, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Post Classical: Cross Came Down, oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Post Classical: Holy Communion, oil on canvas,1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22 舒群 作品三号 油画 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu Qun, Work No.3, oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 舒群 绝对原则系列·4号 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu Qun, Absolute Principle No.4,oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu Qun, Absolute Principle,oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu Qun, Endless Road No.6, oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ren Jian, Legend of Sirius No.1,ink, 1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ren Jian,Haven, Earth, and Hell No.1,oil on canvas, 1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lin Wei,Structure of Rouault No.1,oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Yalin,Landscape,oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 王海燕两个角度的自画像 油画 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Haiyan,Self-portrait from 2 Angles,oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Youth Year, Jiangsu Youth Art Week,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiangsu Youth Art Week,Large Modern Art Exhibition,exhibition contract,1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiangsu Youth Art Week,Large Modern Art Exhibition,scence 1, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu Xiaoyun, Repeatation, Cutted Apple, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu Xiaoyun, Seeing Sky through Yellow Hands, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ren Rong, The hand together with the shadow Is Seeking Suviving, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu Weide, Corrosive Laugh, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu Yihui, Southern Moleyate, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiang Songzhu, Final Persue=Vain, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"White Sail Art Photography Exhibition" Album, cover,1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"White Sail Art Photography Exhibition" Album, content 1,1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"White Sail Art Photography Exhibition" Album, content 2,1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yang Zhilin, Constellation, composite materials, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chai Xiaogang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialoge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 包劍斐 新空間2號 版畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv Tao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geng Jianli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Pipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haircut 4--Fashinable Style in Summer in 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Song Lin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>People Pipe 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silent Dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cha Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cha Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu Jin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guojun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27 張培力 《褐皮書一號》實行過程·在郵件封皮上書寫收件人姓名及地址 1988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 張培力 《褐皮書一號》實行過程45·講郵件送入郵筒 1988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 龔建慶 哈雷彗星 版畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiao Gu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tear the sky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 楊暉 沒有日期的東方節日 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19 《首屆上海青年美術作品展作品選》封面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 《海平線'86》册頁封面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jian Jun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44 陳箴 無題 油畫 1983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yu Sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mask No.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Jieming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Lianling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Shan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yu Youlian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhao Yifu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hong Jijie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen Zhen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fang Zhuang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ye Mu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shen Fan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Hui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhou Peide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Song Haidong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Jieming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">No.2  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Shan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encounter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revelation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revelation-Horse and Sun Series</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ye Mu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhou Changjiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mo Tuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiao Xiaolan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu Hong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Liang </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yu Jiangang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lei Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun Liang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strange Landscape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deficit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abstract 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red Seal 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Nights</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6108,7 +6684,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Landscape</t>
+    <t>The Moon Is Sleeping on Earth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 谷文達 三個斯芬克斯的頭像 1982</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three Sphinx's Avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Religion and Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taiji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History of Civilization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dun Huang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Structure of Caligraphy and Seal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 谷文達 作為軀幹的肖像 油畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potrait as body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tai Ji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 谷文達 殉道 油畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martyrdom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6116,647 +6760,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>No Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous Chessboard  Leaves The Earth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu Shaoxiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Work 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Work 2</t>
-  </si>
-  <si>
-    <t>Work 3</t>
-  </si>
-  <si>
-    <t>Big Wheel 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Big Wheel 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wisdom and Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Philosophy Script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Culture No.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title 2</t>
-  </si>
-  <si>
-    <t>Self Portrait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Maple Illustration based on a short story </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo during Culture Revolution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wei Fuyi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title, No.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title, No.2</t>
-  </si>
-  <si>
-    <t>No Title, No.3</t>
-  </si>
-  <si>
-    <t>No Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Northern Su</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Station</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title, No.4</t>
-  </si>
-  <si>
-    <t>No Title, No.5</t>
-  </si>
-  <si>
-    <t>Performance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brown Book No.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brown Book No.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sea Breeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shi Guo,To Penetrate Each Other,ink,1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shi Panshi,Abyss,oil on canvas,1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Li Ziren,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Girl Space No.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Girl Space No.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Girl Space No.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Seven Seven Seven " Logo, Ren Jian Design,1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Group Photo of the "Seven Seven Seven", from left:Shu Qun, Ren Jian, Zhang Shuguang, Lv Yin,Zhang Qiandi, Ba Wei,1984 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover of Magazine "God" from Northern Art Group,1985 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invitation of Northern Artists Group Biennial,1987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene of Northern Artists Group Biennial,1987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 "理性绘画专题讨论会" 现场讨论 右起：高名潞 朱青生 刘彦 王雅琳 舒群等 1987.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guest Book of Northern Artists Group Biennial,1987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 "北方艺术群体双年展"合影 第一排左起：王雅琳 王碧蓉 摄制组成员 卡桑 中央台摄制组组员 刘彦 倪琪 中央台摄制组组长李少武 第二排左起 摄制组组员两人 王广义 高名潞 周彦 舒群 舒群弟 摄制组组员 1987.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 "七七七"成員聚會 左起：舒群 任戩 張曙光 呂瑛 張茜苐 巴威 1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 星星露天美展 左一曲磊磊 左二美協主席劉迅 左三李爽 左五王克平 1979</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 第二屆星星畫展成員合影于北京中國美術館 左起：石京生 陳延生 姓名不詳 曲磊磊 馬德升 王克平 北島 楊益平 黃銳 包炮 朱金石 1980</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 "理性绘画专题讨论会"现场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 王广义 凝固的北方极地系列·15号 油画 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Frozen North Pole  No.15, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17 王广义 后古典·信仰的时代 中世纪 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Post Classical: Era of Faith Medieval, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Post Classical:The Return of Tragic Love, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Post Classical: Cross Came Down, oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Post Classical: Holy Communion, oil on canvas,1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22 舒群 作品三号 油画 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shu Qun, Work No.3, oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23 舒群 绝对原则系列·4号 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shu Qun, Absolute Principle No.4,oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shu Qun, Absolute Principle,oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shu Qun, Endless Road No.6, oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ren Jian, Legend of Sirius No.1,ink, 1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ren Jian,Haven, Earth, and Hell No.1,oil on canvas, 1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lin Wei,Structure of Rouault No.1,oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Yalin,Landscape,oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50 王海燕两个角度的自画像 油画 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Haiyan,Self-portrait from 2 Angles,oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>International Youth Year, Jiangsu Youth Art Week,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiangsu Youth Art Week,Large Modern Art Exhibition,exhibition contract,1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiangsu Youth Art Week,Large Modern Art Exhibition,scence 1, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wu Xiaoyun, Repeatation, Cutted Apple, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wu Xiaoyun, Seeing Sky through Yellow Hands, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ren Rong, The hand together with the shadow Is Seeking Suviving, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xu Weide, Corrosive Laugh, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xu Yihui, Southern Moleyate, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiang Songzhu, Final Persue=Vain, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"White Sail Art Photography Exhibition" Album, cover,1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"White Sail Art Photography Exhibition" Album, content 1,1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"White Sail Art Photography Exhibition" Album, content 2,1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yang Zhilin, Constellation, composite materials, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chai Xiaogang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Autumn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialoge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 包劍斐 新空間2號 版畫 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv Tao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geng Jianli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>White Pipe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haircut 4--Fashinable Style in Summer in 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Song Lin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>People Pipe 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silent Dialogue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cha Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cha Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xu Jin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guojun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27 張培力 《褐皮書一號》實行過程·在郵件封皮上書寫收件人姓名及地址 1988</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28 張培力 《褐皮書一號》實行過程45·講郵件送入郵筒 1988</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 龔建慶 哈雷彗星 版畫 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xiao Gu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Halley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reverie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tear the sky</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 楊暉 沒有日期的東方節日 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19 《首屆上海青年美術作品展作品選》封面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 《海平線'86》册頁封面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jian Jun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44 陳箴 無題 油畫 1983</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yu Sen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mask No.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhang Jieming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Lianling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Li Shan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yu Youlian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhao Yifu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hong Jijie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chen Zhen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fang Zhuang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ye Mu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shen Fan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Hui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhou Peide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Song Haidong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhang Jieming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">No.2  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Li Shan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Encounter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Revelation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Revelation-Horse and Sun Series</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ye Mu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhou Changjiang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mo Tuo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xiao Xiaolan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xu Hong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Liang </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yu Jiangang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lei Min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sun Liang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strange Landscape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deficit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abstract 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Red Seal 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>White Nights</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Moon Is Sleeping on Earth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 谷文達 三個斯芬克斯的頭像 1982</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Three Sphinx's Avatar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Religion and Science</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taiji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zoo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>History of Civilization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dun Huang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shipin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Structure of Caligraphy and Seal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21 谷文達 作為軀幹的肖像 油畫 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Potrait as body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tai Ji</t>
+    <t>2 "版象藝術展"展覽現場·之一 1988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 版象空間現場·之一 1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17 版象空間現場·之二 1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 新觀念現代藝術展 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new concept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 "M 現代藝術研究會" 簡介之一 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24  "M 現代藝術研究會" 簡介之二 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 "閩滬青年美展"展訊 1985</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16843,9 +16891,9 @@
   <dimension ref="A1:N1051"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F345" sqref="F345"/>
+      <selection pane="bottomLeft" activeCell="B379" sqref="B379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17141,7 +17189,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="C12" t="s">
         <v>1413</v>
@@ -17167,7 +17215,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="C13" t="s">
         <v>1414</v>
@@ -17583,7 +17631,7 @@
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="G26" t="s">
         <v>1092</v>
@@ -17844,7 +17892,7 @@
         <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="D41" t="s">
         <v>1294</v>
@@ -17873,7 +17921,7 @@
         <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="D42" t="s">
         <v>1294</v>
@@ -17902,7 +17950,7 @@
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="D43" t="s">
         <v>1294</v>
@@ -17911,7 +17959,7 @@
         <v>1444</v>
       </c>
       <c r="F43" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="G43" t="s">
         <v>1766</v>
@@ -17940,7 +17988,7 @@
         <v>1444</v>
       </c>
       <c r="F44" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="G44" t="s">
         <v>1360</v>
@@ -17969,7 +18017,7 @@
         <v>1444</v>
       </c>
       <c r="F45" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="G45" t="s">
         <v>1765</v>
@@ -18083,7 +18131,7 @@
         <v>1585</v>
       </c>
       <c r="C51" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="D51" t="s">
         <v>1294</v>
@@ -18126,10 +18174,10 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="C53" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="D53" t="s">
         <v>1293</v>
@@ -18149,7 +18197,7 @@
         <v>1592</v>
       </c>
       <c r="C54" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="D54" t="s">
         <v>1295</v>
@@ -18166,7 +18214,7 @@
         <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="D55" t="s">
         <v>1293</v>
@@ -18183,7 +18231,7 @@
         <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="D56" t="s">
         <v>1296</v>
@@ -18200,7 +18248,7 @@
         <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="D57" t="s">
         <v>1295</v>
@@ -18214,7 +18262,7 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="C58" t="s">
         <v>1593</v>
@@ -18228,7 +18276,7 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="D59" t="s">
         <v>1297</v>
@@ -18242,7 +18290,7 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="D60" t="s">
         <v>1298</v>
@@ -18256,10 +18304,10 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="C61" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="D61" t="s">
         <v>1299</v>
@@ -18386,10 +18434,10 @@
         <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="C66" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="D66" t="s">
         <v>1299</v>
@@ -18415,7 +18463,7 @@
         <v>1358</v>
       </c>
       <c r="C67" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="D67" t="s">
         <v>1299</v>
@@ -18441,7 +18489,7 @@
         <v>1362</v>
       </c>
       <c r="C68" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="D68" t="s">
         <v>1299</v>
@@ -18493,7 +18541,7 @@
         <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="D70" t="s">
         <v>1299</v>
@@ -18516,10 +18564,10 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="C71" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="D71" t="s">
         <v>1299</v>
@@ -18542,10 +18590,10 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="C72" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="D72" t="s">
         <v>1299</v>
@@ -18571,7 +18619,7 @@
         <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="D73" t="s">
         <v>1299</v>
@@ -18597,7 +18645,7 @@
         <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="D74" t="s">
         <v>1299</v>
@@ -18623,7 +18671,7 @@
         <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="D75" t="s">
         <v>1299</v>
@@ -18831,7 +18879,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="D83" t="s">
         <v>1299</v>
@@ -18961,7 +19009,7 @@
         <v>105</v>
       </c>
       <c r="C88" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="D88" t="s">
         <v>1299</v>
@@ -19221,7 +19269,7 @@
         <v>115</v>
       </c>
       <c r="C98" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="D98" t="s">
         <v>1299</v>
@@ -19241,10 +19289,10 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="C99" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="D99" t="s">
         <v>1299</v>
@@ -19275,7 +19323,7 @@
         <v>117</v>
       </c>
       <c r="C101" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="D101" t="s">
         <v>1293</v>
@@ -19292,7 +19340,7 @@
         <v>118</v>
       </c>
       <c r="C102" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="D102" t="s">
         <v>1300</v>
@@ -19309,7 +19357,7 @@
         <v>119</v>
       </c>
       <c r="C103" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="D103" t="s">
         <v>1296</v>
@@ -19482,7 +19530,7 @@
         <v>129</v>
       </c>
       <c r="C113" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="D113" t="s">
         <v>1294</v>
@@ -19505,7 +19553,7 @@
         <v>130</v>
       </c>
       <c r="C114" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="D114" t="s">
         <v>1304</v>
@@ -19528,7 +19576,7 @@
         <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="D115" t="s">
         <v>1304</v>
@@ -19551,7 +19599,7 @@
         <v>1397</v>
       </c>
       <c r="C116" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="D116" t="s">
         <v>1304</v>
@@ -19597,7 +19645,7 @@
         <v>134</v>
       </c>
       <c r="C118" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="D118" t="s">
         <v>1304</v>
@@ -19620,7 +19668,7 @@
         <v>135</v>
       </c>
       <c r="C119" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="D119" t="s">
         <v>1304</v>
@@ -19643,7 +19691,7 @@
         <v>136</v>
       </c>
       <c r="C120" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="D120" t="s">
         <v>1305</v>
@@ -19660,7 +19708,7 @@
         <v>137</v>
       </c>
       <c r="C121" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="D121" t="s">
         <v>1305</v>
@@ -19677,7 +19725,7 @@
         <v>138</v>
       </c>
       <c r="C122" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="D122" t="s">
         <v>1305</v>
@@ -20514,7 +20562,7 @@
         <v>174</v>
       </c>
       <c r="C158" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="D158" t="s">
         <v>1299</v>
@@ -20721,7 +20769,7 @@
         <v>183</v>
       </c>
       <c r="C167" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="D167" t="s">
         <v>1299</v>
@@ -21117,7 +21165,7 @@
         <v>1299</v>
       </c>
       <c r="F182" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="H182" t="s">
         <v>1159</v>
@@ -21195,7 +21243,7 @@
         <v>1299</v>
       </c>
       <c r="F185" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="H185" t="s">
         <v>1162</v>
@@ -21221,7 +21269,7 @@
         <v>1299</v>
       </c>
       <c r="F186" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="H186" t="s">
         <v>1164</v>
@@ -21423,7 +21471,7 @@
         <v>210</v>
       </c>
       <c r="C194" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="D194" t="s">
         <v>1299</v>
@@ -21486,7 +21534,7 @@
         <v>1169</v>
       </c>
       <c r="F197" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="H197" t="s">
         <v>1169</v>
@@ -21598,10 +21646,10 @@
         <v>217</v>
       </c>
       <c r="C202" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="F202" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="H202" t="s">
         <v>1171</v>
@@ -21621,10 +21669,10 @@
         <v>218</v>
       </c>
       <c r="C203" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="F203" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="H203" t="s">
         <v>1171</v>
@@ -21647,7 +21695,7 @@
         <v>1171</v>
       </c>
       <c r="F204" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="H204" t="s">
         <v>1171</v>
@@ -21670,7 +21718,7 @@
         <v>1171</v>
       </c>
       <c r="F205" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="H205" t="s">
         <v>1171</v>
@@ -21733,7 +21781,7 @@
         <v>15</v>
       </c>
       <c r="B208" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="C208" t="s">
         <v>1172</v>
@@ -21828,7 +21876,7 @@
         <v>227</v>
       </c>
       <c r="C212" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="F212" t="s">
         <v>1770</v>
@@ -21851,7 +21899,7 @@
         <v>228</v>
       </c>
       <c r="C213" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="F213" t="s">
         <v>1771</v>
@@ -21874,7 +21922,7 @@
         <v>229</v>
       </c>
       <c r="C214" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="F214" t="s">
         <v>1772</v>
@@ -21897,7 +21945,7 @@
         <v>230</v>
       </c>
       <c r="C215" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="F215" t="s">
         <v>1773</v>
@@ -21966,7 +22014,7 @@
         <v>233</v>
       </c>
       <c r="C218" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="F218" t="s">
         <v>1776</v>
@@ -22038,10 +22086,10 @@
         <v>1169</v>
       </c>
       <c r="F221" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="G221" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="H221" t="s">
         <v>1169</v>
@@ -22058,16 +22106,16 @@
         <v>1050</v>
       </c>
       <c r="B222" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="C222" t="s">
         <v>1169</v>
       </c>
       <c r="F222" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="G222" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="H222" t="s">
         <v>1169</v>
@@ -22084,16 +22132,16 @@
         <v>1</v>
       </c>
       <c r="B223" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="C223" t="s">
         <v>1169</v>
       </c>
       <c r="F223" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="G223" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="J223" t="s">
         <v>1554</v>
@@ -22184,7 +22232,7 @@
         <v>242</v>
       </c>
       <c r="C228" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="H228" t="s">
         <v>1181</v>
@@ -22224,13 +22272,13 @@
         <v>8</v>
       </c>
       <c r="B230" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="C230" t="s">
         <v>1181</v>
       </c>
       <c r="F230" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="H230" t="s">
         <v>1181</v>
@@ -22276,7 +22324,7 @@
         <v>1181</v>
       </c>
       <c r="F232" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="H232" t="s">
         <v>1182</v>
@@ -22322,7 +22370,7 @@
         <v>1182</v>
       </c>
       <c r="F234" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="H234" t="s">
         <v>1182</v>
@@ -22379,7 +22427,7 @@
         <v>15</v>
       </c>
       <c r="B237" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="C237" t="s">
         <v>1183</v>
@@ -22499,7 +22547,7 @@
         <v>21</v>
       </c>
       <c r="B243" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="D243" t="s">
         <v>1136</v>
@@ -22513,7 +22561,7 @@
         <v>22</v>
       </c>
       <c r="B244" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="D244" t="s">
         <v>1134</v>
@@ -22642,7 +22690,7 @@
         <v>267</v>
       </c>
       <c r="C253" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="D253" t="s">
         <v>1134</v>
@@ -22702,13 +22750,13 @@
         <v>270</v>
       </c>
       <c r="C256" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="D256" t="s">
         <v>1186</v>
       </c>
       <c r="F256" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="G256" t="s">
         <v>1783</v>
@@ -22731,7 +22779,7 @@
         <v>271</v>
       </c>
       <c r="C257" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="D257" t="s">
         <v>1185</v>
@@ -22757,7 +22805,7 @@
         <v>272</v>
       </c>
       <c r="C258" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="D258" t="s">
         <v>1185</v>
@@ -22783,13 +22831,13 @@
         <v>273</v>
       </c>
       <c r="C259" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="D259" t="s">
         <v>1185</v>
       </c>
       <c r="F259" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="H259" t="s">
         <v>1529</v>
@@ -22809,7 +22857,7 @@
         <v>274</v>
       </c>
       <c r="C260" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="D260" t="s">
         <v>1185</v>
@@ -22835,7 +22883,7 @@
         <v>275</v>
       </c>
       <c r="C261" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="D261" t="s">
         <v>1185</v>
@@ -22861,7 +22909,7 @@
         <v>276</v>
       </c>
       <c r="C262" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="D262" t="s">
         <v>1185</v>
@@ -22887,13 +22935,13 @@
         <v>277</v>
       </c>
       <c r="C263" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="D263" t="s">
         <v>1185</v>
       </c>
       <c r="F263" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="H263" t="s">
         <v>1468</v>
@@ -22913,7 +22961,7 @@
         <v>278</v>
       </c>
       <c r="C264" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="D264" t="s">
         <v>1185</v>
@@ -22939,7 +22987,7 @@
         <v>279</v>
       </c>
       <c r="C265" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="D265" t="s">
         <v>1185</v>
@@ -22965,7 +23013,7 @@
         <v>280</v>
       </c>
       <c r="C266" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="D266" t="s">
         <v>1185</v>
@@ -22991,7 +23039,7 @@
         <v>281</v>
       </c>
       <c r="C267" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="D267" t="s">
         <v>1185</v>
@@ -23014,10 +23062,10 @@
         <v>46</v>
       </c>
       <c r="B268" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="C268" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="D268" t="s">
         <v>1185</v>
@@ -23043,13 +23091,13 @@
         <v>283</v>
       </c>
       <c r="C269" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="D269" t="s">
         <v>1185</v>
       </c>
       <c r="F269" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="H269" t="s">
         <v>1534</v>
@@ -23069,13 +23117,13 @@
         <v>284</v>
       </c>
       <c r="C270" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="D270" t="s">
         <v>1185</v>
       </c>
       <c r="F270" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="H270" t="s">
         <v>1534</v>
@@ -23095,7 +23143,7 @@
         <v>285</v>
       </c>
       <c r="C271" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="D271" t="s">
         <v>1185</v>
@@ -23121,13 +23169,13 @@
         <v>1793</v>
       </c>
       <c r="C272" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="D272" t="s">
         <v>1185</v>
       </c>
       <c r="F272" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="H272" t="s">
         <v>1536</v>
@@ -23147,13 +23195,13 @@
         <v>287</v>
       </c>
       <c r="C273" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="D273" t="s">
         <v>1185</v>
       </c>
       <c r="F273" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="H273" t="s">
         <v>1536</v>
@@ -23173,7 +23221,7 @@
         <v>288</v>
       </c>
       <c r="C274" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="D274" t="s">
         <v>1185</v>
@@ -23199,7 +23247,7 @@
         <v>289</v>
       </c>
       <c r="C275" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="D275" t="s">
         <v>1185</v>
@@ -23225,7 +23273,7 @@
         <v>290</v>
       </c>
       <c r="C276" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="D276" t="s">
         <v>1185</v>
@@ -23251,13 +23299,13 @@
         <v>291</v>
       </c>
       <c r="C277" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="D277" t="s">
         <v>1185</v>
       </c>
       <c r="F277" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="H277" t="s">
         <v>1540</v>
@@ -23277,7 +23325,7 @@
         <v>292</v>
       </c>
       <c r="C278" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="D278" t="s">
         <v>1185</v>
@@ -23300,7 +23348,7 @@
         <v>293</v>
       </c>
       <c r="C279" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="D279" t="s">
         <v>1185</v>
@@ -23326,13 +23374,13 @@
         <v>294</v>
       </c>
       <c r="C280" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="D280" t="s">
         <v>1185</v>
       </c>
       <c r="F280" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="H280" t="s">
         <v>1543</v>
@@ -23352,13 +23400,13 @@
         <v>295</v>
       </c>
       <c r="C281" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="D281" t="s">
         <v>1185</v>
       </c>
       <c r="F281" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="H281" t="s">
         <v>1544</v>
@@ -23378,7 +23426,7 @@
         <v>296</v>
       </c>
       <c r="C282" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="D282" t="s">
         <v>1185</v>
@@ -23404,7 +23452,7 @@
         <v>297</v>
       </c>
       <c r="C283" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="D283" t="s">
         <v>1185</v>
@@ -23430,10 +23478,10 @@
         <v>298</v>
       </c>
       <c r="C284" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="F284" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="H284" t="s">
         <v>1546</v>
@@ -23453,10 +23501,10 @@
         <v>299</v>
       </c>
       <c r="C285" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F285" t="s">
         <v>1941</v>
-      </c>
-      <c r="F285" t="s">
-        <v>1944</v>
       </c>
       <c r="H285" t="s">
         <v>1547</v>
@@ -24071,7 +24119,7 @@
         <v>1187</v>
       </c>
       <c r="F309" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="H309" t="s">
         <v>1094</v>
@@ -24123,7 +24171,7 @@
         <v>1187</v>
       </c>
       <c r="F311" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="H311" t="s">
         <v>1097</v>
@@ -24149,7 +24197,7 @@
         <v>1187</v>
       </c>
       <c r="F312" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="H312" t="s">
         <v>1094</v>
@@ -24423,7 +24471,7 @@
         <v>1140</v>
       </c>
       <c r="F323" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="G323" t="s">
         <v>1765</v>
@@ -24452,7 +24500,7 @@
         <v>1185</v>
       </c>
       <c r="F324" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="G324" t="s">
         <v>1765</v>
@@ -24481,7 +24529,7 @@
         <v>1185</v>
       </c>
       <c r="F325" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="G325" t="s">
         <v>1765</v>
@@ -24510,7 +24558,7 @@
         <v>1185</v>
       </c>
       <c r="F326" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="G326" t="s">
         <v>1765</v>
@@ -24539,7 +24587,7 @@
         <v>1185</v>
       </c>
       <c r="F327" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="G327" t="s">
         <v>1765</v>
@@ -24591,7 +24639,7 @@
         <v>1185</v>
       </c>
       <c r="F329" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="G329" t="s">
         <v>1765</v>
@@ -24611,7 +24659,7 @@
         <v>10</v>
       </c>
       <c r="B330" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="C330" t="s">
         <v>1195</v>
@@ -24620,7 +24668,7 @@
         <v>1185</v>
       </c>
       <c r="F330" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="H330" t="s">
         <v>1195</v>
@@ -24646,7 +24694,7 @@
         <v>1185</v>
       </c>
       <c r="F331" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="H331" t="s">
         <v>1195</v>
@@ -24672,7 +24720,7 @@
         <v>1185</v>
       </c>
       <c r="F332" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="H332" t="s">
         <v>1195</v>
@@ -24698,7 +24746,7 @@
         <v>1185</v>
       </c>
       <c r="F333" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="H333" t="s">
         <v>1195</v>
@@ -24724,7 +24772,7 @@
         <v>1185</v>
       </c>
       <c r="F334" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="H334" t="s">
         <v>1195</v>
@@ -24750,7 +24798,7 @@
         <v>1185</v>
       </c>
       <c r="F335" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="H335" t="s">
         <v>1195</v>
@@ -24776,7 +24824,7 @@
         <v>1185</v>
       </c>
       <c r="F336" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="H336" t="s">
         <v>1195</v>
@@ -24802,7 +24850,7 @@
         <v>1185</v>
       </c>
       <c r="F337" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="H337" t="s">
         <v>1195</v>
@@ -24828,7 +24876,7 @@
         <v>1185</v>
       </c>
       <c r="F338" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="H338" t="s">
         <v>1195</v>
@@ -24854,7 +24902,7 @@
         <v>1185</v>
       </c>
       <c r="F339" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="H339" t="s">
         <v>1195</v>
@@ -24880,7 +24928,7 @@
         <v>1185</v>
       </c>
       <c r="F340" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="H340" t="s">
         <v>1195</v>
@@ -24906,7 +24954,7 @@
         <v>1185</v>
       </c>
       <c r="F341" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="H341" t="s">
         <v>1195</v>
@@ -24932,7 +24980,7 @@
         <v>1185</v>
       </c>
       <c r="F342" t="s">
-        <v>1804</v>
+        <v>1967</v>
       </c>
       <c r="H342" t="s">
         <v>1195</v>
@@ -24949,7 +24997,7 @@
         <v>23</v>
       </c>
       <c r="B343" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="C343" t="s">
         <v>1195</v>
@@ -24958,7 +25006,7 @@
         <v>1185</v>
       </c>
       <c r="F343" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="H343" t="s">
         <v>1195</v>
@@ -24984,7 +25032,7 @@
         <v>1185</v>
       </c>
       <c r="F344" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="H344" t="s">
         <v>1195</v>
@@ -25010,7 +25058,7 @@
         <v>1185</v>
       </c>
       <c r="F345" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="H345" t="s">
         <v>1195</v>
@@ -25027,13 +25075,16 @@
         <v>26</v>
       </c>
       <c r="B346" t="s">
-        <v>358</v>
+        <v>1965</v>
       </c>
       <c r="C346" t="s">
         <v>1195</v>
       </c>
       <c r="D346" t="s">
         <v>1185</v>
+      </c>
+      <c r="F346" t="s">
+        <v>1966</v>
       </c>
       <c r="H346" t="s">
         <v>1195</v>
@@ -25059,7 +25110,7 @@
         <v>1185</v>
       </c>
       <c r="F347" t="s">
-        <v>1797</v>
+        <v>1968</v>
       </c>
       <c r="H347" t="s">
         <v>1195</v>
@@ -25084,6 +25135,9 @@
       <c r="D348" t="s">
         <v>1185</v>
       </c>
+      <c r="F348" t="s">
+        <v>1969</v>
+      </c>
       <c r="H348" t="s">
         <v>1195</v>
       </c>
@@ -25102,13 +25156,13 @@
         <v>361</v>
       </c>
       <c r="C349" t="s">
-        <v>1196</v>
+        <v>1970</v>
       </c>
       <c r="D349" t="s">
         <v>1185</v>
       </c>
       <c r="F349" t="s">
-        <v>1805</v>
+        <v>1971</v>
       </c>
       <c r="H349" t="s">
         <v>1196</v>
@@ -25134,7 +25188,7 @@
         <v>1185</v>
       </c>
       <c r="F350" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="H350" t="s">
         <v>1196</v>
@@ -25160,7 +25214,7 @@
         <v>1185</v>
       </c>
       <c r="F351" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="H351" t="s">
         <v>1196</v>
@@ -25186,7 +25240,7 @@
         <v>1185</v>
       </c>
       <c r="F352" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="H352" t="s">
         <v>1197</v>
@@ -25212,7 +25266,7 @@
         <v>1185</v>
       </c>
       <c r="F353" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="H353" t="s">
         <v>1197</v>
@@ -25260,7 +25314,7 @@
         <v>4</v>
       </c>
       <c r="B356" t="s">
-        <v>367</v>
+        <v>1972</v>
       </c>
       <c r="D356" t="s">
         <v>1135</v>
@@ -25498,7 +25552,7 @@
         <v>18</v>
       </c>
       <c r="B370" t="s">
-        <v>381</v>
+        <v>1973</v>
       </c>
       <c r="D370" t="s">
         <v>1135</v>
@@ -25515,7 +25569,7 @@
         <v>19</v>
       </c>
       <c r="B371" t="s">
-        <v>382</v>
+        <v>1974</v>
       </c>
       <c r="D371" t="s">
         <v>1076</v>
@@ -25569,7 +25623,10 @@
         <v>22</v>
       </c>
       <c r="B374" t="s">
-        <v>385</v>
+        <v>1975</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1976</v>
       </c>
       <c r="D374" t="s">
         <v>1076</v>
@@ -25620,7 +25677,7 @@
         <v>25</v>
       </c>
       <c r="B377" t="s">
-        <v>388</v>
+        <v>1977</v>
       </c>
       <c r="D377" t="s">
         <v>1134</v>
@@ -25637,7 +25694,7 @@
         <v>26</v>
       </c>
       <c r="B378" t="s">
-        <v>389</v>
+        <v>1978</v>
       </c>
       <c r="D378" t="s">
         <v>1136</v>
@@ -25654,7 +25711,7 @@
         <v>27</v>
       </c>
       <c r="B379" t="s">
-        <v>390</v>
+        <v>1979</v>
       </c>
       <c r="J379" t="s">
         <v>1551</v>
@@ -25688,7 +25745,7 @@
         <v>1187</v>
       </c>
       <c r="F381" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="H381" t="s">
         <v>1200</v>
@@ -25711,7 +25768,7 @@
         <v>1187</v>
       </c>
       <c r="F382" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="H382" t="s">
         <v>1200</v>
@@ -25734,7 +25791,7 @@
         <v>1187</v>
       </c>
       <c r="F383" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="H383" t="s">
         <v>1200</v>
@@ -25757,7 +25814,7 @@
         <v>1187</v>
       </c>
       <c r="F384" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="H384" t="s">
         <v>1199</v>
@@ -25780,7 +25837,7 @@
         <v>1187</v>
       </c>
       <c r="F385" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="H385" t="s">
         <v>1199</v>
@@ -25803,7 +25860,7 @@
         <v>1187</v>
       </c>
       <c r="F386" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="J386" t="s">
         <v>1551</v>
@@ -25823,7 +25880,7 @@
         <v>1187</v>
       </c>
       <c r="F387" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="H387" t="s">
         <v>1198</v>
@@ -25846,7 +25903,7 @@
         <v>1187</v>
       </c>
       <c r="F388" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="H388" t="s">
         <v>1198</v>
@@ -25869,7 +25926,7 @@
         <v>1187</v>
       </c>
       <c r="F389" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="H389" t="s">
         <v>1198</v>
@@ -26257,7 +26314,7 @@
         <v>422</v>
       </c>
       <c r="F412" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="H412" t="s">
         <v>1189</v>
@@ -33540,7 +33597,7 @@
         <v>831</v>
       </c>
       <c r="F830" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="H830" t="s">
         <v>1342</v>
@@ -33560,7 +33617,7 @@
         <v>832</v>
       </c>
       <c r="F831" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="H831" t="s">
         <v>1343</v>
@@ -33580,7 +33637,7 @@
         <v>833</v>
       </c>
       <c r="F832" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="H832" t="s">
         <v>1342</v>
@@ -33600,7 +33657,7 @@
         <v>834</v>
       </c>
       <c r="F833" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="H833" t="s">
         <v>1344</v>
@@ -33620,7 +33677,7 @@
         <v>835</v>
       </c>
       <c r="F834" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="H834" t="s">
         <v>1344</v>
@@ -33640,7 +33697,7 @@
         <v>836</v>
       </c>
       <c r="F835" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="H835" t="s">
         <v>1345</v>
@@ -33660,7 +33717,7 @@
         <v>837</v>
       </c>
       <c r="F836" s="6" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="H836" t="s">
         <v>1346</v>
@@ -33680,7 +33737,7 @@
         <v>838</v>
       </c>
       <c r="F837" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="H837" t="s">
         <v>1347</v>
@@ -33700,7 +33757,7 @@
         <v>839</v>
       </c>
       <c r="F838" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="H838" t="s">
         <v>1347</v>
@@ -33720,7 +33777,7 @@
         <v>840</v>
       </c>
       <c r="F839" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="H839" t="s">
         <v>1347</v>
@@ -33740,7 +33797,7 @@
         <v>841</v>
       </c>
       <c r="F840" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="H840" t="s">
         <v>1348</v>
@@ -33760,7 +33817,7 @@
         <v>842</v>
       </c>
       <c r="F841" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="H841" t="s">
         <v>1348</v>
@@ -33780,7 +33837,7 @@
         <v>843</v>
       </c>
       <c r="F842" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="H842" t="s">
         <v>1348</v>
@@ -33800,7 +33857,7 @@
         <v>844</v>
       </c>
       <c r="F843" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="H843" t="s">
         <v>1348</v>
@@ -33820,7 +33877,7 @@
         <v>845</v>
       </c>
       <c r="F844" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="H844" t="s">
         <v>1348</v>
@@ -34936,7 +34993,7 @@
         <v>922</v>
       </c>
       <c r="F922" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="K922" t="s">
         <v>1767</v>
@@ -34950,7 +35007,7 @@
         <v>923</v>
       </c>
       <c r="F923" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="K923" t="s">
         <v>1767</v>
@@ -34964,7 +35021,7 @@
         <v>924</v>
       </c>
       <c r="F924" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="K924" t="s">
         <v>1767</v>
@@ -34978,7 +35035,7 @@
         <v>925</v>
       </c>
       <c r="C925" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="K925" t="s">
         <v>1767</v>
@@ -34992,7 +35049,7 @@
         <v>926</v>
       </c>
       <c r="C926" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="K926" t="s">
         <v>1767</v>
@@ -35006,7 +35063,7 @@
         <v>927</v>
       </c>
       <c r="C927" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="K927" t="s">
         <v>1767</v>
@@ -35020,7 +35077,7 @@
         <v>928</v>
       </c>
       <c r="C928" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="K928" t="s">
         <v>1767</v>
@@ -35034,7 +35091,7 @@
         <v>929</v>
       </c>
       <c r="C929" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="K929" t="s">
         <v>1767</v>

--- a/organize .xlsx
+++ b/organize .xlsx
@@ -17051,9 +17051,9 @@
   <dimension ref="A1:N1051"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C514" sqref="C514"/>
+      <selection pane="bottomLeft" activeCell="B403" sqref="B403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/organize .xlsx
+++ b/organize .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6066" uniqueCount="2020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6066" uniqueCount="2023">
   <si>
     <t>Stars Exhibition</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6132,839 +6132,851 @@
     <t>No Title 3</t>
   </si>
   <si>
+    <t xml:space="preserve">Maple Illustration based on a short story </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wei Fuyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title, No.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title, No.2</t>
+  </si>
+  <si>
+    <t>No Title, No.3</t>
+  </si>
+  <si>
+    <t>No Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northern Su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Station</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title, No.4</t>
+  </si>
+  <si>
+    <t>No Title, No.5</t>
+  </si>
+  <si>
+    <t>Performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown Book No.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown Book No.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sea Breeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shi Guo,To Penetrate Each Other,ink,1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shi Panshi,Abyss,oil on canvas,1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Ziren,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl Space No.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl Space No.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl Space No.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Seven Seven Seven " Logo, Ren Jian Design,1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Photo of the "Seven Seven Seven", from left:Shu Qun, Ren Jian, Zhang Shuguang, Lv Yin,Zhang Qiandi, Ba Wei,1984 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover of Magazine "God" from Northern Art Group,1985 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invitation of Northern Artists Group Biennial,1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene of Northern Artists Group Biennial,1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 "理性绘画专题讨论会" 现场讨论 右起：高名潞 朱青生 刘彦 王雅琳 舒群等 1987.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guest Book of Northern Artists Group Biennial,1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 "北方艺术群体双年展"合影 第一排左起：王雅琳 王碧蓉 摄制组成员 卡桑 中央台摄制组组员 刘彦 倪琪 中央台摄制组组长李少武 第二排左起 摄制组组员两人 王广义 高名潞 周彦 舒群 舒群弟 摄制组组员 1987.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 "七七七"成員聚會 左起：舒群 任戩 張曙光 呂瑛 張茜苐 巴威 1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 星星露天美展 左一曲磊磊 左二美協主席劉迅 左三李爽 左五王克平 1979</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 第二屆星星畫展成員合影于北京中國美術館 左起：石京生 陳延生 姓名不詳 曲磊磊 馬德升 王克平 北島 楊益平 黃銳 包炮 朱金石 1980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 "理性绘画专题讨论会"现场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 王广义 凝固的北方极地系列·15号 油画 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Frozen North Pole  No.15, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17 王广义 后古典·信仰的时代 中世纪 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Post Classical: Era of Faith Medieval, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Post Classical:The Return of Tragic Love, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Post Classical: Cross Came Down, oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guangyi, Post Classical: Holy Communion, oil on canvas,1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22 舒群 作品三号 油画 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu Qun, Work No.3, oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 舒群 绝对原则系列·4号 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu Qun, Absolute Principle No.4,oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu Qun, Absolute Principle,oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu Qun, Endless Road No.6, oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ren Jian, Legend of Sirius No.1,ink, 1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ren Jian,Haven, Earth, and Hell No.1,oil on canvas, 1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lin Wei,Structure of Rouault No.1,oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Yalin,Landscape,oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 王海燕两个角度的自画像 油画 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Haiyan,Self-portrait from 2 Angles,oil on canvas, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Youth Year, Jiangsu Youth Art Week,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiangsu Youth Art Week,Large Modern Art Exhibition,exhibition contract,1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiangsu Youth Art Week,Large Modern Art Exhibition,scence 1, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu Xiaoyun, Repeatation, Cutted Apple, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu Xiaoyun, Seeing Sky through Yellow Hands, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ren Rong, The hand together with the shadow Is Seeking Suviving, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu Weide, Corrosive Laugh, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu Yihui, Southern Moleyate, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiang Songzhu, Final Persue=Vain, oil on canvas, 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"White Sail Art Photography Exhibition" Album, cover,1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"White Sail Art Photography Exhibition" Album, content 1,1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"White Sail Art Photography Exhibition" Album, content 2,1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yang Zhilin, Constellation, composite materials, 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chai Xiaogang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialoge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 包劍斐 新空間2號 版畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv Tao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geng Jianli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Pipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haircut 4--Fashinable Style in Summer in 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Song Lin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>People Pipe 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silent Dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cha Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cha Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu Jin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Guojun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27 張培力 《褐皮書一號》實行過程·在郵件封皮上書寫收件人姓名及地址 1988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 張培力 《褐皮書一號》實行過程45·講郵件送入郵筒 1988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 龔建慶 哈雷彗星 版畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiao Gu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tear the sky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 楊暉 沒有日期的東方節日 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19 《首屆上海青年美術作品展作品選》封面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 《海平線'86》册頁封面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jian Jun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44 陳箴 無題 油畫 1983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yu Sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mask No.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Jieming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Lianling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Shan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yu Youlian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhao Yifu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hong Jijie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen Zhen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fang Zhuang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ye Mu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shen Fan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Hui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhou Peide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Song Haidong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Jieming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">No.2  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Shan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encounter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revelation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revelation-Horse and Sun Series</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ye Mu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhou Changjiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mo Tuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiao Xiaolan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu Hong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Liang </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yu Jiangang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lei Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun Liang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strange Landscape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deficit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abstract 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red Seal 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Nights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Moon Is Sleeping on Earth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 谷文達 三個斯芬克斯的頭像 1982</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three Sphinx's Avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Religion and Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taiji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History of Civilization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dun Huang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Structure of Caligraphy and Seal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 谷文達 作為軀幹的肖像 油畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potrait as body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tai Ji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 谷文達 殉道 油畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martyrdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sky and Ocean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dangerous Chessboard  Leaves The Earth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu Shaoxiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 "版象藝術展"展覽現場·之一 1988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 版象空間現場·之一 1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17 版象空間現場·之二 1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 新觀念現代藝術展 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new concept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 "M 現代藝術研究會" 簡介之一 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24  "M 現代藝術研究會" 簡介之二 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 "閩滬青年美展"展訊 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 "新具象"上海展廳中張隆作品 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wisdom and Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philosophy Script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Culture No.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 蔡國強 無題·之一 油畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huang Yongping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cai Guoqiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu Xiangdong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mao Xuhui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Xiaogang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ye Yongqing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pan Dehai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fu Liya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ding Defu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun Guojuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hou Wenyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhai Wei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yang Huangli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Xiaping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun Shifan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu Quan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cao Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xia Xiaowan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liang Yuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen Qiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Baoying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu Changshun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Song</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhu Haikun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lin Chunyan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Yibo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meng Luding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen Dan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guan Wei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhao Hui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen Wenqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Qun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Youshen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu Shaoxiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jia Bo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun Jianping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Jin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yan Binghui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv Peihuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 "新具象"上海展廳中潘德海作品 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 "新具象"成員在上海靜安區文化館 右起依次為侯文怡 徐侃 張隆 毛旭輝 潘德海 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 "新具象"上海展出現場 毛旭輝和劉鐵軍在毛旭輝作品前 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">Red </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Maple Illustration based on a short story </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wei Fuyi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title, No.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title, No.2</t>
-  </si>
-  <si>
-    <t>No Title, No.3</t>
-  </si>
-  <si>
-    <t>No Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Northern Su</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Station</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title, No.4</t>
-  </si>
-  <si>
-    <t>No Title, No.5</t>
-  </si>
-  <si>
-    <t>Performance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brown Book No.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brown Book No.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sea Breeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shi Guo,To Penetrate Each Other,ink,1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shi Panshi,Abyss,oil on canvas,1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Li Ziren,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Girl Space No.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Girl Space No.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Girl Space No.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Seven Seven Seven " Logo, Ren Jian Design,1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Group Photo of the "Seven Seven Seven", from left:Shu Qun, Ren Jian, Zhang Shuguang, Lv Yin,Zhang Qiandi, Ba Wei,1984 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover of Magazine "God" from Northern Art Group,1985 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invitation of Northern Artists Group Biennial,1987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene of Northern Artists Group Biennial,1987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 "理性绘画专题讨论会" 现场讨论 右起：高名潞 朱青生 刘彦 王雅琳 舒群等 1987.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guest Book of Northern Artists Group Biennial,1987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 "北方艺术群体双年展"合影 第一排左起：王雅琳 王碧蓉 摄制组成员 卡桑 中央台摄制组组员 刘彦 倪琪 中央台摄制组组长李少武 第二排左起 摄制组组员两人 王广义 高名潞 周彦 舒群 舒群弟 摄制组组员 1987.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 "七七七"成員聚會 左起：舒群 任戩 張曙光 呂瑛 張茜苐 巴威 1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 星星露天美展 左一曲磊磊 左二美協主席劉迅 左三李爽 左五王克平 1979</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 第二屆星星畫展成員合影于北京中國美術館 左起：石京生 陳延生 姓名不詳 曲磊磊 馬德升 王克平 北島 楊益平 黃銳 包炮 朱金石 1980</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 "理性绘画专题讨论会"现场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 王广义 凝固的北方极地系列·15号 油画 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Frozen North Pole  No.15, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17 王广义 后古典·信仰的时代 中世纪 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Post Classical: Era of Faith Medieval, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Post Classical:The Return of Tragic Love, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Post Classical: Cross Came Down, oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guangyi, Post Classical: Holy Communion, oil on canvas,1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22 舒群 作品三号 油画 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shu Qun, Work No.3, oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23 舒群 绝对原则系列·4号 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shu Qun, Absolute Principle No.4,oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shu Qun, Absolute Principle,oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shu Qun, Endless Road No.6, oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ren Jian, Legend of Sirius No.1,ink, 1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ren Jian,Haven, Earth, and Hell No.1,oil on canvas, 1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lin Wei,Structure of Rouault No.1,oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Yalin,Landscape,oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50 王海燕两个角度的自画像 油画 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Haiyan,Self-portrait from 2 Angles,oil on canvas, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>International Youth Year, Jiangsu Youth Art Week,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiangsu Youth Art Week,Large Modern Art Exhibition,exhibition contract,1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiangsu Youth Art Week,Large Modern Art Exhibition,scence 1, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wu Xiaoyun, Repeatation, Cutted Apple, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wu Xiaoyun, Seeing Sky through Yellow Hands, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ren Rong, The hand together with the shadow Is Seeking Suviving, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xu Weide, Corrosive Laugh, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xu Yihui, Southern Moleyate, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiang Songzhu, Final Persue=Vain, oil on canvas, 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"White Sail Art Photography Exhibition" Album, cover,1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"White Sail Art Photography Exhibition" Album, content 1,1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"White Sail Art Photography Exhibition" Album, content 2,1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yang Zhilin, Constellation, composite materials, 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chai Xiaogang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Autumn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialoge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 包劍斐 新空間2號 版畫 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv Tao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geng Jianli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>White Pipe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haircut 4--Fashinable Style in Summer in 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Song Lin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>People Pipe 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silent Dialogue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cha Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cha Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xu Jin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Guojun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27 張培力 《褐皮書一號》實行過程·在郵件封皮上書寫收件人姓名及地址 1988</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28 張培力 《褐皮書一號》實行過程45·講郵件送入郵筒 1988</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 龔建慶 哈雷彗星 版畫 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xiao Gu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Halley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reverie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tear the sky</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 楊暉 沒有日期的東方節日 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19 《首屆上海青年美術作品展作品選》封面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 《海平線'86》册頁封面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jian Jun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44 陳箴 無題 油畫 1983</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yu Sen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mask No.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhang Jieming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Lianling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Li Shan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yu Youlian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhao Yifu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hong Jijie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chen Zhen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fang Zhuang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ye Mu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shen Fan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Hui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhou Peide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Song Haidong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhang Jieming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">No.2  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Li Shan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Encounter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Revelation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Revelation-Horse and Sun Series</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ye Mu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhou Changjiang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mo Tuo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xiao Xiaolan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xu Hong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Liang </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yu Jiangang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lei Min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sun Liang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strange Landscape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deficit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abstract 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Red Seal 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>White Nights</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Moon Is Sleeping on Earth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 谷文達 三個斯芬克斯的頭像 1982</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Three Sphinx's Avatar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Religion and Science</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taiji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zoo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>History of Civilization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dun Huang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shipin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Structure of Caligraphy and Seal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21 谷文達 作為軀幹的肖像 油畫 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Potrait as body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tai Ji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 谷文達 殉道 油畫 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Martyrdom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sky and Ocean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dangerous Chessboard  Leaves The Earth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wu Shaoxiang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 "版象藝術展"展覽現場·之一 1988</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 版象空間現場·之一 1987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17 版象空間現場·之二 1987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 新觀念現代藝術展 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>new concept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23 "M 現代藝術研究會" 簡介之一 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24  "M 現代藝術研究會" 簡介之二 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25 "閩滬青年美展"展訊 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 "新具象"上海展廳中張隆作品 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wisdom and Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Philosophy Script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Culture No.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30 蔡國強 無題·之一 油畫 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Huang Yongping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cai Guoqiang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liu Xiangdong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mao Xuhui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhang Xiaogang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ye Yongqing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pan Dehai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fu Liya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ding Defu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sun Guojuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hou Wenyi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhai Wei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yang Huangli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhang Long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhang Xiaping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sun Shifan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liu Quan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cao Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xia Xiaowan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liang Yuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chen Qiang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Li Baoying</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liu Changshun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhang Song</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhu Haikun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lin Chunyan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhang Yibo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meng Luding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chen Dan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guan Wei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhao Hui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chen Wenqi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhang Qun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Youshen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wu Shaoxiang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jia Bo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sun Jianping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Li Jin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yan Binghui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv Peihuan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -17051,9 +17063,9 @@
   <dimension ref="A1:N1051"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B403" sqref="B403"/>
+      <selection pane="bottomLeft" activeCell="B424" sqref="B424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17349,7 +17361,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C12" t="s">
         <v>1412</v>
@@ -17375,7 +17387,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C13" t="s">
         <v>1413</v>
@@ -17791,7 +17803,7 @@
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="G26" t="s">
         <v>1092</v>
@@ -18052,7 +18064,7 @@
         <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D41" t="s">
         <v>1293</v>
@@ -18081,7 +18093,7 @@
         <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D42" t="s">
         <v>1293</v>
@@ -18110,7 +18122,7 @@
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D43" t="s">
         <v>1293</v>
@@ -18119,7 +18131,7 @@
         <v>1443</v>
       </c>
       <c r="F43" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G43" t="s">
         <v>1765</v>
@@ -18148,7 +18160,7 @@
         <v>1443</v>
       </c>
       <c r="F44" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G44" t="s">
         <v>1359</v>
@@ -18177,7 +18189,7 @@
         <v>1443</v>
       </c>
       <c r="F45" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="G45" t="s">
         <v>1764</v>
@@ -18291,7 +18303,7 @@
         <v>1584</v>
       </c>
       <c r="C51" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D51" t="s">
         <v>1293</v>
@@ -18334,10 +18346,10 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C53" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D53" t="s">
         <v>1292</v>
@@ -18357,7 +18369,7 @@
         <v>1591</v>
       </c>
       <c r="C54" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D54" t="s">
         <v>1294</v>
@@ -18374,7 +18386,7 @@
         <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D55" t="s">
         <v>1292</v>
@@ -18391,7 +18403,7 @@
         <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D56" t="s">
         <v>1295</v>
@@ -18408,7 +18420,7 @@
         <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D57" t="s">
         <v>1294</v>
@@ -18422,7 +18434,7 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C58" t="s">
         <v>1592</v>
@@ -18436,7 +18448,7 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D59" t="s">
         <v>1296</v>
@@ -18450,7 +18462,7 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D60" t="s">
         <v>1297</v>
@@ -18464,10 +18476,10 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C61" t="s">
         <v>1843</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1844</v>
       </c>
       <c r="D61" t="s">
         <v>1298</v>
@@ -18594,10 +18606,10 @@
         <v>19</v>
       </c>
       <c r="B66" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C66" t="s">
         <v>1845</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1846</v>
       </c>
       <c r="D66" t="s">
         <v>1298</v>
@@ -18623,7 +18635,7 @@
         <v>1357</v>
       </c>
       <c r="C67" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D67" t="s">
         <v>1298</v>
@@ -18649,7 +18661,7 @@
         <v>1361</v>
       </c>
       <c r="C68" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D68" t="s">
         <v>1298</v>
@@ -18701,7 +18713,7 @@
         <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D70" t="s">
         <v>1298</v>
@@ -18724,10 +18736,10 @@
         <v>24</v>
       </c>
       <c r="B71" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C71" t="s">
         <v>1850</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1851</v>
       </c>
       <c r="D71" t="s">
         <v>1298</v>
@@ -18750,10 +18762,10 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C72" t="s">
         <v>1852</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1853</v>
       </c>
       <c r="D72" t="s">
         <v>1298</v>
@@ -18779,7 +18791,7 @@
         <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D73" t="s">
         <v>1298</v>
@@ -18805,7 +18817,7 @@
         <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D74" t="s">
         <v>1298</v>
@@ -18831,7 +18843,7 @@
         <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D75" t="s">
         <v>1298</v>
@@ -19039,7 +19051,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D83" t="s">
         <v>1298</v>
@@ -19169,7 +19181,7 @@
         <v>105</v>
       </c>
       <c r="C88" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D88" t="s">
         <v>1298</v>
@@ -19429,7 +19441,7 @@
         <v>115</v>
       </c>
       <c r="C98" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D98" t="s">
         <v>1298</v>
@@ -19449,10 +19461,10 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C99" t="s">
         <v>1860</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1861</v>
       </c>
       <c r="D99" t="s">
         <v>1298</v>
@@ -19483,7 +19495,7 @@
         <v>117</v>
       </c>
       <c r="C101" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D101" t="s">
         <v>1292</v>
@@ -19500,7 +19512,7 @@
         <v>118</v>
       </c>
       <c r="C102" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D102" t="s">
         <v>1299</v>
@@ -19517,7 +19529,7 @@
         <v>119</v>
       </c>
       <c r="C103" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D103" t="s">
         <v>1295</v>
@@ -19690,7 +19702,7 @@
         <v>129</v>
       </c>
       <c r="C113" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D113" t="s">
         <v>1293</v>
@@ -19713,7 +19725,7 @@
         <v>130</v>
       </c>
       <c r="C114" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D114" t="s">
         <v>1303</v>
@@ -19736,7 +19748,7 @@
         <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D115" t="s">
         <v>1303</v>
@@ -19759,7 +19771,7 @@
         <v>1396</v>
       </c>
       <c r="C116" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D116" t="s">
         <v>1303</v>
@@ -19805,7 +19817,7 @@
         <v>134</v>
       </c>
       <c r="C118" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D118" t="s">
         <v>1303</v>
@@ -19828,7 +19840,7 @@
         <v>135</v>
       </c>
       <c r="C119" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D119" t="s">
         <v>1303</v>
@@ -19851,7 +19863,7 @@
         <v>136</v>
       </c>
       <c r="C120" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D120" t="s">
         <v>1304</v>
@@ -19868,7 +19880,7 @@
         <v>137</v>
       </c>
       <c r="C121" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D121" t="s">
         <v>1304</v>
@@ -19885,7 +19897,7 @@
         <v>138</v>
       </c>
       <c r="C122" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D122" t="s">
         <v>1304</v>
@@ -20722,7 +20734,7 @@
         <v>174</v>
       </c>
       <c r="C158" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D158" t="s">
         <v>1298</v>
@@ -20929,7 +20941,7 @@
         <v>183</v>
       </c>
       <c r="C167" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D167" t="s">
         <v>1298</v>
@@ -21325,7 +21337,7 @@
         <v>1298</v>
       </c>
       <c r="F182" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="H182" t="s">
         <v>1159</v>
@@ -21403,7 +21415,7 @@
         <v>1298</v>
       </c>
       <c r="F185" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="H185" t="s">
         <v>1162</v>
@@ -21429,7 +21441,7 @@
         <v>1298</v>
       </c>
       <c r="F186" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="H186" t="s">
         <v>1164</v>
@@ -21631,7 +21643,7 @@
         <v>210</v>
       </c>
       <c r="C194" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D194" t="s">
         <v>1298</v>
@@ -21694,7 +21706,7 @@
         <v>1169</v>
       </c>
       <c r="F197" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="H197" t="s">
         <v>1169</v>
@@ -21806,10 +21818,10 @@
         <v>217</v>
       </c>
       <c r="C202" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="F202" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="H202" t="s">
         <v>1171</v>
@@ -21829,10 +21841,10 @@
         <v>218</v>
       </c>
       <c r="C203" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F203" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="H203" t="s">
         <v>1171</v>
@@ -21855,7 +21867,7 @@
         <v>1171</v>
       </c>
       <c r="F204" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="H204" t="s">
         <v>1171</v>
@@ -21878,7 +21890,7 @@
         <v>1171</v>
       </c>
       <c r="F205" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="H205" t="s">
         <v>1171</v>
@@ -21941,7 +21953,7 @@
         <v>15</v>
       </c>
       <c r="B208" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C208" t="s">
         <v>1172</v>
@@ -22036,7 +22048,7 @@
         <v>227</v>
       </c>
       <c r="C212" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="F212" t="s">
         <v>1769</v>
@@ -22059,7 +22071,7 @@
         <v>228</v>
       </c>
       <c r="C213" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="F213" t="s">
         <v>1770</v>
@@ -22082,7 +22094,7 @@
         <v>229</v>
       </c>
       <c r="C214" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F214" t="s">
         <v>1771</v>
@@ -22105,7 +22117,7 @@
         <v>230</v>
       </c>
       <c r="C215" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F215" t="s">
         <v>1772</v>
@@ -22174,7 +22186,7 @@
         <v>233</v>
       </c>
       <c r="C218" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F218" t="s">
         <v>1775</v>
@@ -22246,10 +22258,10 @@
         <v>1169</v>
       </c>
       <c r="F221" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="G221" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H221" t="s">
         <v>1169</v>
@@ -22266,16 +22278,16 @@
         <v>1050</v>
       </c>
       <c r="B222" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C222" t="s">
         <v>1169</v>
       </c>
       <c r="F222" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G222" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H222" t="s">
         <v>1169</v>
@@ -22292,16 +22304,16 @@
         <v>1</v>
       </c>
       <c r="B223" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C223" t="s">
         <v>1169</v>
       </c>
       <c r="F223" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G223" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="J223" t="s">
         <v>1553</v>
@@ -22392,7 +22404,7 @@
         <v>242</v>
       </c>
       <c r="C228" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="H228" t="s">
         <v>1181</v>
@@ -22432,13 +22444,13 @@
         <v>8</v>
       </c>
       <c r="B230" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C230" t="s">
         <v>1181</v>
       </c>
       <c r="F230" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="H230" t="s">
         <v>1181</v>
@@ -22484,7 +22496,7 @@
         <v>1181</v>
       </c>
       <c r="F232" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H232" t="s">
         <v>1182</v>
@@ -22530,7 +22542,7 @@
         <v>1182</v>
       </c>
       <c r="F234" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="H234" t="s">
         <v>1182</v>
@@ -22587,7 +22599,7 @@
         <v>15</v>
       </c>
       <c r="B237" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C237" t="s">
         <v>1183</v>
@@ -22707,7 +22719,7 @@
         <v>21</v>
       </c>
       <c r="B243" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D243" t="s">
         <v>1136</v>
@@ -22721,7 +22733,7 @@
         <v>22</v>
       </c>
       <c r="B244" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D244" t="s">
         <v>1134</v>
@@ -22850,7 +22862,7 @@
         <v>267</v>
       </c>
       <c r="C253" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D253" t="s">
         <v>1134</v>
@@ -22910,13 +22922,13 @@
         <v>270</v>
       </c>
       <c r="C256" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="D256" t="s">
         <v>1186</v>
       </c>
       <c r="F256" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="G256" t="s">
         <v>1782</v>
@@ -22939,7 +22951,7 @@
         <v>271</v>
       </c>
       <c r="C257" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D257" t="s">
         <v>1185</v>
@@ -22965,7 +22977,7 @@
         <v>272</v>
       </c>
       <c r="C258" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D258" t="s">
         <v>1185</v>
@@ -22991,13 +23003,13 @@
         <v>273</v>
       </c>
       <c r="C259" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D259" t="s">
         <v>1185</v>
       </c>
       <c r="F259" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="H259" t="s">
         <v>1528</v>
@@ -23017,7 +23029,7 @@
         <v>274</v>
       </c>
       <c r="C260" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="D260" t="s">
         <v>1185</v>
@@ -23043,7 +23055,7 @@
         <v>275</v>
       </c>
       <c r="C261" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="D261" t="s">
         <v>1185</v>
@@ -23069,7 +23081,7 @@
         <v>276</v>
       </c>
       <c r="C262" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D262" t="s">
         <v>1185</v>
@@ -23095,13 +23107,13 @@
         <v>277</v>
       </c>
       <c r="C263" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D263" t="s">
         <v>1185</v>
       </c>
       <c r="F263" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="H263" t="s">
         <v>1467</v>
@@ -23121,7 +23133,7 @@
         <v>278</v>
       </c>
       <c r="C264" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D264" t="s">
         <v>1185</v>
@@ -23147,7 +23159,7 @@
         <v>279</v>
       </c>
       <c r="C265" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D265" t="s">
         <v>1185</v>
@@ -23173,7 +23185,7 @@
         <v>280</v>
       </c>
       <c r="C266" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D266" t="s">
         <v>1185</v>
@@ -23199,7 +23211,7 @@
         <v>281</v>
       </c>
       <c r="C267" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D267" t="s">
         <v>1185</v>
@@ -23222,10 +23234,10 @@
         <v>46</v>
       </c>
       <c r="B268" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="C268" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D268" t="s">
         <v>1185</v>
@@ -23251,13 +23263,13 @@
         <v>283</v>
       </c>
       <c r="C269" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D269" t="s">
         <v>1185</v>
       </c>
       <c r="F269" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="H269" t="s">
         <v>1533</v>
@@ -23277,13 +23289,13 @@
         <v>284</v>
       </c>
       <c r="C270" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D270" t="s">
         <v>1185</v>
       </c>
       <c r="F270" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="H270" t="s">
         <v>1533</v>
@@ -23303,7 +23315,7 @@
         <v>285</v>
       </c>
       <c r="C271" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D271" t="s">
         <v>1185</v>
@@ -23329,13 +23341,13 @@
         <v>1792</v>
       </c>
       <c r="C272" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D272" t="s">
         <v>1185</v>
       </c>
       <c r="F272" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="H272" t="s">
         <v>1535</v>
@@ -23355,13 +23367,13 @@
         <v>287</v>
       </c>
       <c r="C273" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D273" t="s">
         <v>1185</v>
       </c>
       <c r="F273" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="H273" t="s">
         <v>1535</v>
@@ -23381,7 +23393,7 @@
         <v>288</v>
       </c>
       <c r="C274" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D274" t="s">
         <v>1185</v>
@@ -23407,7 +23419,7 @@
         <v>289</v>
       </c>
       <c r="C275" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D275" t="s">
         <v>1185</v>
@@ -23433,7 +23445,7 @@
         <v>290</v>
       </c>
       <c r="C276" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D276" t="s">
         <v>1185</v>
@@ -23459,13 +23471,13 @@
         <v>291</v>
       </c>
       <c r="C277" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D277" t="s">
         <v>1185</v>
       </c>
       <c r="F277" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="H277" t="s">
         <v>1539</v>
@@ -23485,7 +23497,7 @@
         <v>292</v>
       </c>
       <c r="C278" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D278" t="s">
         <v>1185</v>
@@ -23508,7 +23520,7 @@
         <v>293</v>
       </c>
       <c r="C279" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D279" t="s">
         <v>1185</v>
@@ -23534,7 +23546,7 @@
         <v>294</v>
       </c>
       <c r="C280" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D280" t="s">
         <v>1185</v>
@@ -23560,7 +23572,7 @@
         <v>295</v>
       </c>
       <c r="C281" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D281" t="s">
         <v>1185</v>
@@ -23586,7 +23598,7 @@
         <v>296</v>
       </c>
       <c r="C282" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D282" t="s">
         <v>1185</v>
@@ -23612,7 +23624,7 @@
         <v>297</v>
       </c>
       <c r="C283" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D283" t="s">
         <v>1185</v>
@@ -23638,7 +23650,7 @@
         <v>298</v>
       </c>
       <c r="C284" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F284" t="s">
         <v>1798</v>
@@ -23661,10 +23673,10 @@
         <v>299</v>
       </c>
       <c r="C285" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="F285" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="H285" t="s">
         <v>1546</v>
@@ -24279,7 +24291,7 @@
         <v>1187</v>
       </c>
       <c r="F309" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="H309" t="s">
         <v>1094</v>
@@ -24331,7 +24343,7 @@
         <v>1187</v>
       </c>
       <c r="F311" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="H311" t="s">
         <v>1097</v>
@@ -24357,7 +24369,7 @@
         <v>1187</v>
       </c>
       <c r="F312" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="H312" t="s">
         <v>1094</v>
@@ -24631,7 +24643,7 @@
         <v>1140</v>
       </c>
       <c r="F323" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="G323" t="s">
         <v>1764</v>
@@ -24660,7 +24672,7 @@
         <v>1185</v>
       </c>
       <c r="F324" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="G324" t="s">
         <v>1764</v>
@@ -24689,7 +24701,7 @@
         <v>1185</v>
       </c>
       <c r="F325" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="G325" t="s">
         <v>1764</v>
@@ -24718,7 +24730,7 @@
         <v>1185</v>
       </c>
       <c r="F326" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="G326" t="s">
         <v>1764</v>
@@ -24747,7 +24759,7 @@
         <v>1185</v>
       </c>
       <c r="F327" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G327" t="s">
         <v>1764</v>
@@ -24819,7 +24831,7 @@
         <v>10</v>
       </c>
       <c r="B330" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="C330" t="s">
         <v>1195</v>
@@ -24828,7 +24840,7 @@
         <v>1185</v>
       </c>
       <c r="F330" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="H330" t="s">
         <v>1195</v>
@@ -24880,7 +24892,7 @@
         <v>1185</v>
       </c>
       <c r="F332" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="H332" t="s">
         <v>1195</v>
@@ -24906,7 +24918,7 @@
         <v>1185</v>
       </c>
       <c r="F333" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="H333" t="s">
         <v>1195</v>
@@ -24932,7 +24944,7 @@
         <v>1185</v>
       </c>
       <c r="F334" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="H334" t="s">
         <v>1195</v>
@@ -24958,7 +24970,7 @@
         <v>1185</v>
       </c>
       <c r="F335" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="H335" t="s">
         <v>1195</v>
@@ -24984,7 +24996,7 @@
         <v>1185</v>
       </c>
       <c r="F336" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="H336" t="s">
         <v>1195</v>
@@ -25010,7 +25022,7 @@
         <v>1185</v>
       </c>
       <c r="F337" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="H337" t="s">
         <v>1195</v>
@@ -25062,7 +25074,7 @@
         <v>1185</v>
       </c>
       <c r="F339" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="H339" t="s">
         <v>1195</v>
@@ -25088,7 +25100,7 @@
         <v>1185</v>
       </c>
       <c r="F340" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="H340" t="s">
         <v>1195</v>
@@ -25114,7 +25126,7 @@
         <v>1185</v>
       </c>
       <c r="F341" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H341" t="s">
         <v>1195</v>
@@ -25140,7 +25152,7 @@
         <v>1185</v>
       </c>
       <c r="F342" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="H342" t="s">
         <v>1195</v>
@@ -25157,7 +25169,7 @@
         <v>23</v>
       </c>
       <c r="B343" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C343" t="s">
         <v>1195</v>
@@ -25166,7 +25178,7 @@
         <v>1185</v>
       </c>
       <c r="F343" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="H343" t="s">
         <v>1195</v>
@@ -25192,7 +25204,7 @@
         <v>1185</v>
       </c>
       <c r="F344" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="H344" t="s">
         <v>1195</v>
@@ -25218,7 +25230,7 @@
         <v>1185</v>
       </c>
       <c r="F345" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="H345" t="s">
         <v>1195</v>
@@ -25235,7 +25247,7 @@
         <v>26</v>
       </c>
       <c r="B346" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C346" t="s">
         <v>1195</v>
@@ -25244,7 +25256,7 @@
         <v>1185</v>
       </c>
       <c r="F346" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H346" t="s">
         <v>1195</v>
@@ -25270,7 +25282,7 @@
         <v>1185</v>
       </c>
       <c r="F347" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="H347" t="s">
         <v>1195</v>
@@ -25296,7 +25308,7 @@
         <v>1185</v>
       </c>
       <c r="F348" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="H348" t="s">
         <v>1195</v>
@@ -25316,13 +25328,13 @@
         <v>361</v>
       </c>
       <c r="C349" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D349" t="s">
         <v>1185</v>
       </c>
       <c r="F349" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="H349" t="s">
         <v>1196</v>
@@ -25474,7 +25486,7 @@
         <v>4</v>
       </c>
       <c r="B356" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D356" t="s">
         <v>1135</v>
@@ -25712,7 +25724,7 @@
         <v>18</v>
       </c>
       <c r="B370" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D370" t="s">
         <v>1135</v>
@@ -25729,7 +25741,7 @@
         <v>19</v>
       </c>
       <c r="B371" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D371" t="s">
         <v>1076</v>
@@ -25783,10 +25795,10 @@
         <v>22</v>
       </c>
       <c r="B374" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C374" t="s">
         <v>1970</v>
-      </c>
-      <c r="C374" t="s">
-        <v>1971</v>
       </c>
       <c r="D374" t="s">
         <v>1076</v>
@@ -25837,7 +25849,7 @@
         <v>25</v>
       </c>
       <c r="B377" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D377" t="s">
         <v>1134</v>
@@ -25854,7 +25866,7 @@
         <v>26</v>
       </c>
       <c r="B378" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D378" t="s">
         <v>1136</v>
@@ -25871,7 +25883,7 @@
         <v>27</v>
       </c>
       <c r="B379" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="J379" t="s">
         <v>1550</v>
@@ -25902,13 +25914,13 @@
         <v>392</v>
       </c>
       <c r="C381" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D381" t="s">
         <v>1187</v>
       </c>
       <c r="F381" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="H381" t="s">
         <v>1200</v>
@@ -25928,13 +25940,13 @@
         <v>393</v>
       </c>
       <c r="C382" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D382" t="s">
         <v>1187</v>
       </c>
       <c r="F382" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="H382" t="s">
         <v>1200</v>
@@ -25954,13 +25966,13 @@
         <v>394</v>
       </c>
       <c r="C383" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D383" t="s">
         <v>1187</v>
       </c>
       <c r="F383" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="H383" t="s">
         <v>1200</v>
@@ -25977,10 +25989,10 @@
         <v>32</v>
       </c>
       <c r="B384" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C384" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D384" t="s">
         <v>1187</v>
@@ -26006,7 +26018,7 @@
         <v>396</v>
       </c>
       <c r="C385" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D385" t="s">
         <v>1187</v>
@@ -26032,7 +26044,7 @@
         <v>397</v>
       </c>
       <c r="C386" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D386" t="s">
         <v>1187</v>
@@ -26055,7 +26067,7 @@
         <v>398</v>
       </c>
       <c r="C387" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D387" t="s">
         <v>1187</v>
@@ -26081,7 +26093,7 @@
         <v>399</v>
       </c>
       <c r="C388" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D388" t="s">
         <v>1187</v>
@@ -26107,7 +26119,7 @@
         <v>400</v>
       </c>
       <c r="C389" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D389" t="s">
         <v>1187</v>
@@ -26158,7 +26170,7 @@
         <v>3</v>
       </c>
       <c r="B392" t="s">
-        <v>402</v>
+        <v>2020</v>
       </c>
       <c r="I392" t="s">
         <v>1201</v>
@@ -26175,7 +26187,7 @@
         <v>4</v>
       </c>
       <c r="B393" t="s">
-        <v>403</v>
+        <v>2021</v>
       </c>
       <c r="I393" t="s">
         <v>1201</v>
@@ -26226,7 +26238,7 @@
         <v>7</v>
       </c>
       <c r="B396" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="I396" t="s">
         <v>1201</v>
@@ -26243,7 +26255,7 @@
         <v>8</v>
       </c>
       <c r="B397" t="s">
-        <v>407</v>
+        <v>2019</v>
       </c>
       <c r="I397" t="s">
         <v>1201</v>
@@ -26501,10 +26513,10 @@
         <v>422</v>
       </c>
       <c r="C412" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="F412" t="s">
-        <v>1810</v>
+        <v>2022</v>
       </c>
       <c r="H412" t="s">
         <v>1189</v>
@@ -26524,7 +26536,7 @@
         <v>423</v>
       </c>
       <c r="C413" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H413" t="s">
         <v>1189</v>
@@ -26544,7 +26556,7 @@
         <v>424</v>
       </c>
       <c r="C414" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H414" t="s">
         <v>1189</v>
@@ -26564,7 +26576,7 @@
         <v>425</v>
       </c>
       <c r="C415" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H415" t="s">
         <v>1189</v>
@@ -26584,7 +26596,7 @@
         <v>426</v>
       </c>
       <c r="C416" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H416" t="s">
         <v>1189</v>
@@ -26604,7 +26616,7 @@
         <v>427</v>
       </c>
       <c r="C417" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H417" t="s">
         <v>1189</v>
@@ -26624,7 +26636,7 @@
         <v>428</v>
       </c>
       <c r="C418" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H418" t="s">
         <v>1189</v>
@@ -26644,7 +26656,7 @@
         <v>429</v>
       </c>
       <c r="C419" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H419" t="s">
         <v>1189</v>
@@ -26664,7 +26676,7 @@
         <v>430</v>
       </c>
       <c r="C420" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H420" t="s">
         <v>1189</v>
@@ -26684,7 +26696,7 @@
         <v>431</v>
       </c>
       <c r="C421" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H421" t="s">
         <v>1189</v>
@@ -26704,7 +26716,7 @@
         <v>432</v>
       </c>
       <c r="C422" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H422" t="s">
         <v>1189</v>
@@ -26724,7 +26736,7 @@
         <v>433</v>
       </c>
       <c r="C423" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H423" t="s">
         <v>1189</v>
@@ -26744,7 +26756,7 @@
         <v>434</v>
       </c>
       <c r="C424" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H424" t="s">
         <v>1189</v>
@@ -26764,7 +26776,7 @@
         <v>435</v>
       </c>
       <c r="C425" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H425" t="s">
         <v>1189</v>
@@ -26784,7 +26796,7 @@
         <v>436</v>
       </c>
       <c r="C426" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H426" t="s">
         <v>1189</v>
@@ -26804,7 +26816,7 @@
         <v>437</v>
       </c>
       <c r="C427" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H427" t="s">
         <v>1189</v>
@@ -26824,7 +26836,7 @@
         <v>438</v>
       </c>
       <c r="C428" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H428" t="s">
         <v>1189</v>
@@ -26844,7 +26856,7 @@
         <v>439</v>
       </c>
       <c r="C429" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="H429" t="s">
         <v>1190</v>
@@ -26864,7 +26876,7 @@
         <v>440</v>
       </c>
       <c r="C430" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="H430" t="s">
         <v>1190</v>
@@ -26884,7 +26896,7 @@
         <v>441</v>
       </c>
       <c r="C431" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="H431" t="s">
         <v>1190</v>
@@ -26904,7 +26916,7 @@
         <v>442</v>
       </c>
       <c r="C432" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="H432" t="s">
         <v>1190</v>
@@ -26924,7 +26936,7 @@
         <v>443</v>
       </c>
       <c r="C433" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="H433" t="s">
         <v>1190</v>
@@ -26944,7 +26956,7 @@
         <v>444</v>
       </c>
       <c r="C434" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="H434" t="s">
         <v>1190</v>
@@ -26964,7 +26976,7 @@
         <v>445</v>
       </c>
       <c r="C435" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="H435" t="s">
         <v>1190</v>
@@ -26984,7 +26996,7 @@
         <v>446</v>
       </c>
       <c r="C436" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="H436" t="s">
         <v>1190</v>
@@ -27004,7 +27016,7 @@
         <v>447</v>
       </c>
       <c r="C437" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="H437" t="s">
         <v>1191</v>
@@ -27024,7 +27036,7 @@
         <v>448</v>
       </c>
       <c r="C438" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="H438" t="s">
         <v>1191</v>
@@ -27044,7 +27056,7 @@
         <v>449</v>
       </c>
       <c r="C439" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="H439" t="s">
         <v>1191</v>
@@ -27064,7 +27076,7 @@
         <v>450</v>
       </c>
       <c r="C440" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="H440" t="s">
         <v>1191</v>
@@ -27084,7 +27096,7 @@
         <v>451</v>
       </c>
       <c r="C441" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="H441" t="s">
         <v>1191</v>
@@ -27104,7 +27116,7 @@
         <v>452</v>
       </c>
       <c r="C442" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="H442" t="s">
         <v>1191</v>
@@ -27124,7 +27136,7 @@
         <v>453</v>
       </c>
       <c r="C443" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="H443" t="s">
         <v>1192</v>
@@ -27144,7 +27156,7 @@
         <v>454</v>
       </c>
       <c r="C444" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="H444" t="s">
         <v>1192</v>
@@ -27164,7 +27176,7 @@
         <v>455</v>
       </c>
       <c r="C445" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="H445" t="s">
         <v>1192</v>
@@ -27184,7 +27196,7 @@
         <v>456</v>
       </c>
       <c r="C446" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="H446" t="s">
         <v>1192</v>
@@ -27204,7 +27216,7 @@
         <v>457</v>
       </c>
       <c r="C447" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="H447" t="s">
         <v>1192</v>
@@ -27224,7 +27236,7 @@
         <v>458</v>
       </c>
       <c r="C448" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="H448" t="s">
         <v>1193</v>
@@ -27244,7 +27256,7 @@
         <v>459</v>
       </c>
       <c r="C449" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="H449" t="s">
         <v>1194</v>
@@ -27264,7 +27276,7 @@
         <v>460</v>
       </c>
       <c r="C450" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="H450" t="s">
         <v>1194</v>
@@ -27284,7 +27296,7 @@
         <v>461</v>
       </c>
       <c r="C451" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="H451" t="s">
         <v>1194</v>
@@ -27304,7 +27316,7 @@
         <v>462</v>
       </c>
       <c r="C452" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="H452" t="s">
         <v>1194</v>
@@ -27324,7 +27336,7 @@
         <v>463</v>
       </c>
       <c r="C453" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="H453" t="s">
         <v>1194</v>
@@ -27344,7 +27356,7 @@
         <v>464</v>
       </c>
       <c r="C454" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="H454" t="s">
         <v>1202</v>
@@ -27364,7 +27376,7 @@
         <v>465</v>
       </c>
       <c r="C455" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="H455" t="s">
         <v>1202</v>
@@ -27384,7 +27396,7 @@
         <v>466</v>
       </c>
       <c r="C456" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="H456" t="s">
         <v>1203</v>
@@ -27404,7 +27416,7 @@
         <v>467</v>
       </c>
       <c r="C457" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="H457" t="s">
         <v>1203</v>
@@ -27424,7 +27436,7 @@
         <v>468</v>
       </c>
       <c r="C458" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="H458" t="s">
         <v>1203</v>
@@ -27444,7 +27456,7 @@
         <v>469</v>
       </c>
       <c r="C459" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="H459" t="s">
         <v>1203</v>
@@ -27464,7 +27476,7 @@
         <v>470</v>
       </c>
       <c r="C460" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="H460" t="s">
         <v>1203</v>
@@ -27484,7 +27496,7 @@
         <v>471</v>
       </c>
       <c r="C461" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="H461" t="s">
         <v>1203</v>
@@ -27504,7 +27516,7 @@
         <v>472</v>
       </c>
       <c r="C462" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="H462" t="s">
         <v>1204</v>
@@ -27524,7 +27536,7 @@
         <v>473</v>
       </c>
       <c r="C463" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="H463" t="s">
         <v>1204</v>
@@ -27544,7 +27556,7 @@
         <v>474</v>
       </c>
       <c r="C464" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="H464" t="s">
         <v>1205</v>
@@ -27564,7 +27576,7 @@
         <v>475</v>
       </c>
       <c r="C465" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="H465" t="s">
         <v>1206</v>
@@ -27584,7 +27596,7 @@
         <v>476</v>
       </c>
       <c r="C466" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H466" t="s">
         <v>1207</v>
@@ -27604,7 +27616,7 @@
         <v>477</v>
       </c>
       <c r="C467" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H467" t="s">
         <v>1208</v>
@@ -27638,7 +27650,7 @@
         <v>478</v>
       </c>
       <c r="C469" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="H469" t="s">
         <v>1547</v>
@@ -27658,7 +27670,7 @@
         <v>479</v>
       </c>
       <c r="C470" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H470" t="s">
         <v>1209</v>
@@ -27678,7 +27690,7 @@
         <v>480</v>
       </c>
       <c r="C471" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="H471" t="s">
         <v>1210</v>
@@ -27698,7 +27710,7 @@
         <v>481</v>
       </c>
       <c r="C472" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="H472" t="s">
         <v>1211</v>
@@ -27718,7 +27730,7 @@
         <v>482</v>
       </c>
       <c r="C473" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="H473" t="s">
         <v>1212</v>
@@ -27752,7 +27764,7 @@
         <v>484</v>
       </c>
       <c r="C475" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="H475" t="s">
         <v>1213</v>
@@ -27772,7 +27784,7 @@
         <v>485</v>
       </c>
       <c r="C476" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="H476" t="s">
         <v>1503</v>
@@ -27792,7 +27804,7 @@
         <v>486</v>
       </c>
       <c r="C477" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="H477" t="s">
         <v>1504</v>
@@ -27812,7 +27824,7 @@
         <v>487</v>
       </c>
       <c r="C478" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H478" t="s">
         <v>1505</v>
@@ -27832,7 +27844,7 @@
         <v>488</v>
       </c>
       <c r="C479" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="H479" t="s">
         <v>1506</v>
@@ -27852,7 +27864,7 @@
         <v>489</v>
       </c>
       <c r="C480" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="H480" t="s">
         <v>1507</v>
@@ -27872,7 +27884,7 @@
         <v>490</v>
       </c>
       <c r="C481" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="H481" t="s">
         <v>1508</v>
@@ -27892,7 +27904,7 @@
         <v>491</v>
       </c>
       <c r="C482" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="H482" t="s">
         <v>1509</v>
@@ -27912,7 +27924,7 @@
         <v>492</v>
       </c>
       <c r="C483" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="H483" t="s">
         <v>1510</v>
@@ -27932,7 +27944,7 @@
         <v>493</v>
       </c>
       <c r="C484" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="H484" t="s">
         <v>1511</v>
@@ -27952,7 +27964,7 @@
         <v>494</v>
       </c>
       <c r="C485" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="H485" t="s">
         <v>1512</v>
@@ -27972,7 +27984,7 @@
         <v>495</v>
       </c>
       <c r="C486" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H486" t="s">
         <v>1513</v>
@@ -27992,7 +28004,7 @@
         <v>496</v>
       </c>
       <c r="C487" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H487" t="s">
         <v>1514</v>
@@ -28012,7 +28024,7 @@
         <v>497</v>
       </c>
       <c r="C488" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="H488" t="s">
         <v>1515</v>
@@ -28032,7 +28044,7 @@
         <v>498</v>
       </c>
       <c r="C489" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G489" t="s">
         <v>1214</v>
@@ -28055,7 +28067,7 @@
         <v>499</v>
       </c>
       <c r="C490" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G490" t="s">
         <v>1214</v>
@@ -28078,7 +28090,7 @@
         <v>500</v>
       </c>
       <c r="C491" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G491" t="s">
         <v>1214</v>
@@ -28101,7 +28113,7 @@
         <v>501</v>
       </c>
       <c r="C492" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G492" t="s">
         <v>1092</v>
@@ -28124,7 +28136,7 @@
         <v>502</v>
       </c>
       <c r="C493" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G493" t="s">
         <v>1092</v>
@@ -28147,7 +28159,7 @@
         <v>503</v>
       </c>
       <c r="C494" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G494" t="s">
         <v>1092</v>
@@ -28170,7 +28182,7 @@
         <v>504</v>
       </c>
       <c r="C495" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H495" t="s">
         <v>1519</v>
@@ -28190,7 +28202,7 @@
         <v>505</v>
       </c>
       <c r="C496" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H496" t="s">
         <v>1519</v>
@@ -28210,7 +28222,7 @@
         <v>506</v>
       </c>
       <c r="C497" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H497" t="s">
         <v>1519</v>
@@ -28230,7 +28242,7 @@
         <v>507</v>
       </c>
       <c r="C498" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H498" t="s">
         <v>1519</v>
@@ -28250,7 +28262,7 @@
         <v>508</v>
       </c>
       <c r="C499" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H499" t="s">
         <v>1520</v>
@@ -28270,7 +28282,7 @@
         <v>509</v>
       </c>
       <c r="C500" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H500" t="s">
         <v>1520</v>
@@ -34762,7 +34774,7 @@
         <v>1341</v>
       </c>
       <c r="F830" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H830" t="s">
         <v>1341</v>
@@ -34785,7 +34797,7 @@
         <v>1341</v>
       </c>
       <c r="F831" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H831" t="s">
         <v>1342</v>
@@ -34808,7 +34820,7 @@
         <v>1341</v>
       </c>
       <c r="F832" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="H832" t="s">
         <v>1341</v>
@@ -34831,7 +34843,7 @@
         <v>1343</v>
       </c>
       <c r="F833" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H833" t="s">
         <v>1343</v>
@@ -34854,7 +34866,7 @@
         <v>1343</v>
       </c>
       <c r="F834" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H834" t="s">
         <v>1343</v>
@@ -34877,7 +34889,7 @@
         <v>1344</v>
       </c>
       <c r="F835" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="H835" t="s">
         <v>1344</v>
@@ -34900,7 +34912,7 @@
         <v>1345</v>
       </c>
       <c r="F836" s="6" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="H836" t="s">
         <v>1345</v>
@@ -34923,7 +34935,7 @@
         <v>1345</v>
       </c>
       <c r="F837" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="H837" t="s">
         <v>1346</v>
@@ -34946,7 +34958,7 @@
         <v>1345</v>
       </c>
       <c r="F838" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H838" t="s">
         <v>1346</v>
@@ -34969,7 +34981,7 @@
         <v>1345</v>
       </c>
       <c r="F839" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H839" t="s">
         <v>1346</v>
@@ -34992,7 +35004,7 @@
         <v>1347</v>
       </c>
       <c r="F840" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H840" t="s">
         <v>1347</v>
@@ -35015,7 +35027,7 @@
         <v>1347</v>
       </c>
       <c r="F841" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H841" t="s">
         <v>1347</v>
@@ -35038,7 +35050,7 @@
         <v>1347</v>
       </c>
       <c r="F842" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="H842" t="s">
         <v>1347</v>
@@ -35061,7 +35073,7 @@
         <v>1347</v>
       </c>
       <c r="F843" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="H843" t="s">
         <v>1347</v>
@@ -35084,7 +35096,7 @@
         <v>1347</v>
       </c>
       <c r="F844" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="H844" t="s">
         <v>1347</v>
@@ -36227,7 +36239,7 @@
         <v>922</v>
       </c>
       <c r="F922" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="K922" t="s">
         <v>1766</v>
@@ -36241,7 +36253,7 @@
         <v>923</v>
       </c>
       <c r="F923" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="K923" t="s">
         <v>1766</v>
@@ -36255,7 +36267,7 @@
         <v>924</v>
       </c>
       <c r="F924" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="K924" t="s">
         <v>1766</v>
@@ -36313,7 +36325,7 @@
         <v>929</v>
       </c>
       <c r="C929" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="K929" t="s">
         <v>1766</v>

--- a/organize .xlsx
+++ b/organize .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6066" uniqueCount="2023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6066" uniqueCount="2029">
   <si>
     <t>Stars Exhibition</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6852,131 +6852,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Zhang Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Xiaping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun Shifan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu Quan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cao Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xia Xiaowan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liang Yuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen Qiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Baoying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu Changshun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Song</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhu Haikun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lin Chunyan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Yibo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meng Luding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen Dan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guan Wei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhao Hui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen Wenqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Qun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang Youshen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu Shaoxiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jia Bo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun Jianping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li Jin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yan Binghui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv Peihuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 "新具象"上海展廳中潘德海作品 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 "新具象"成員在上海靜安區文化館 右起依次為侯文怡 徐侃 張隆 毛旭輝 潘德海 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 "新具象"上海展出現場 毛旭輝和劉鐵軍在毛旭輝作品前 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Red </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43 張曉剛 叢林 油畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ye Yongqing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48 葉永青 暗夜 油畫 1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ding Defu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59 丁德福 喚 油畫 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Yang Huangli</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Zhang Long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhang Xiaping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sun Shifan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liu Quan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cao Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xia Xiaowan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liang Yuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chen Qiang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Li Baoying</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liu Changshun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhang Song</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhu Haikun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lin Chunyan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhang Yibo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meng Luding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chen Dan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guan Wei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhao Hui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chen Wenqi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhang Qun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Youshen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wu Shaoxiang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jia Bo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sun Jianping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Li Jin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yan Binghui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv Peihuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 "新具象"上海展廳中潘德海作品 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 "新具象"成員在上海靜安區文化館 右起依次為侯文怡 徐侃 張隆 毛旭輝 潘德海 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 "新具象"上海展出現場 毛旭輝和劉鐵軍在毛旭輝作品前 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Red </t>
+    <t>76 孫式范 對稱的選擇 油畫 1985</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -17063,9 +17087,9 @@
   <dimension ref="A1:N1051"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B424" sqref="B424"/>
+      <selection pane="bottomLeft" activeCell="C476" sqref="C476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -26170,7 +26194,7 @@
         <v>3</v>
       </c>
       <c r="B392" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I392" t="s">
         <v>1201</v>
@@ -26187,7 +26211,7 @@
         <v>4</v>
       </c>
       <c r="B393" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I393" t="s">
         <v>1201</v>
@@ -26255,7 +26279,7 @@
         <v>8</v>
       </c>
       <c r="B397" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I397" t="s">
         <v>1201</v>
@@ -26516,7 +26540,7 @@
         <v>1982</v>
       </c>
       <c r="F412" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="H412" t="s">
         <v>1189</v>
@@ -26953,7 +26977,7 @@
         <v>45</v>
       </c>
       <c r="B434" t="s">
-        <v>444</v>
+        <v>2022</v>
       </c>
       <c r="C434" t="s">
         <v>1983</v>
@@ -27016,7 +27040,7 @@
         <v>447</v>
       </c>
       <c r="C437" t="s">
-        <v>1984</v>
+        <v>2023</v>
       </c>
       <c r="H437" t="s">
         <v>1191</v>
@@ -27053,7 +27077,7 @@
         <v>50</v>
       </c>
       <c r="B439" t="s">
-        <v>449</v>
+        <v>2024</v>
       </c>
       <c r="C439" t="s">
         <v>1984</v>
@@ -27256,7 +27280,7 @@
         <v>459</v>
       </c>
       <c r="C449" t="s">
-        <v>1987</v>
+        <v>2025</v>
       </c>
       <c r="H449" t="s">
         <v>1194</v>
@@ -27273,7 +27297,7 @@
         <v>61</v>
       </c>
       <c r="B450" t="s">
-        <v>460</v>
+        <v>2026</v>
       </c>
       <c r="C450" t="s">
         <v>1987</v>
@@ -27556,7 +27580,7 @@
         <v>474</v>
       </c>
       <c r="C464" t="s">
-        <v>1991</v>
+        <v>2027</v>
       </c>
       <c r="H464" t="s">
         <v>1205</v>
@@ -27576,7 +27600,7 @@
         <v>475</v>
       </c>
       <c r="C465" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="H465" t="s">
         <v>1206</v>
@@ -27596,7 +27620,7 @@
         <v>476</v>
       </c>
       <c r="C466" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="H466" t="s">
         <v>1207</v>
@@ -27613,10 +27637,10 @@
         <v>1</v>
       </c>
       <c r="B467" t="s">
-        <v>477</v>
+        <v>2028</v>
       </c>
       <c r="C467" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H467" t="s">
         <v>1208</v>
@@ -27650,7 +27674,7 @@
         <v>478</v>
       </c>
       <c r="C469" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H469" t="s">
         <v>1547</v>
@@ -27670,7 +27694,7 @@
         <v>479</v>
       </c>
       <c r="C470" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="H470" t="s">
         <v>1209</v>
@@ -27690,7 +27714,7 @@
         <v>480</v>
       </c>
       <c r="C471" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H471" t="s">
         <v>1210</v>
@@ -27710,7 +27734,7 @@
         <v>481</v>
       </c>
       <c r="C472" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="H472" t="s">
         <v>1211</v>
@@ -27730,7 +27754,7 @@
         <v>482</v>
       </c>
       <c r="C473" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="H473" t="s">
         <v>1212</v>
@@ -27764,7 +27788,7 @@
         <v>484</v>
       </c>
       <c r="C475" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="H475" t="s">
         <v>1213</v>
@@ -27784,7 +27808,7 @@
         <v>485</v>
       </c>
       <c r="C476" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="H476" t="s">
         <v>1503</v>
@@ -27804,7 +27828,7 @@
         <v>486</v>
       </c>
       <c r="C477" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="H477" t="s">
         <v>1504</v>
@@ -27824,7 +27848,7 @@
         <v>487</v>
       </c>
       <c r="C478" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="H478" t="s">
         <v>1505</v>
@@ -27844,7 +27868,7 @@
         <v>488</v>
       </c>
       <c r="C479" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H479" t="s">
         <v>1506</v>
@@ -27864,7 +27888,7 @@
         <v>489</v>
       </c>
       <c r="C480" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="H480" t="s">
         <v>1507</v>
@@ -27884,7 +27908,7 @@
         <v>490</v>
       </c>
       <c r="C481" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="H481" t="s">
         <v>1508</v>
@@ -27904,7 +27928,7 @@
         <v>491</v>
       </c>
       <c r="C482" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="H482" t="s">
         <v>1509</v>
@@ -27924,7 +27948,7 @@
         <v>492</v>
       </c>
       <c r="C483" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="H483" t="s">
         <v>1510</v>
@@ -27944,7 +27968,7 @@
         <v>493</v>
       </c>
       <c r="C484" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="H484" t="s">
         <v>1511</v>
@@ -27964,7 +27988,7 @@
         <v>494</v>
       </c>
       <c r="C485" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="H485" t="s">
         <v>1512</v>
@@ -27984,7 +28008,7 @@
         <v>495</v>
       </c>
       <c r="C486" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="H486" t="s">
         <v>1513</v>
@@ -28004,7 +28028,7 @@
         <v>496</v>
       </c>
       <c r="C487" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H487" t="s">
         <v>1514</v>
@@ -28024,7 +28048,7 @@
         <v>497</v>
       </c>
       <c r="C488" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H488" t="s">
         <v>1515</v>
@@ -28044,7 +28068,7 @@
         <v>498</v>
       </c>
       <c r="C489" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G489" t="s">
         <v>1214</v>
@@ -28067,7 +28091,7 @@
         <v>499</v>
       </c>
       <c r="C490" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G490" t="s">
         <v>1214</v>
@@ -28090,7 +28114,7 @@
         <v>500</v>
       </c>
       <c r="C491" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G491" t="s">
         <v>1214</v>
@@ -28113,7 +28137,7 @@
         <v>501</v>
       </c>
       <c r="C492" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G492" t="s">
         <v>1092</v>
@@ -28136,7 +28160,7 @@
         <v>502</v>
       </c>
       <c r="C493" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G493" t="s">
         <v>1092</v>
@@ -28159,7 +28183,7 @@
         <v>503</v>
       </c>
       <c r="C494" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G494" t="s">
         <v>1092</v>
@@ -28182,7 +28206,7 @@
         <v>504</v>
       </c>
       <c r="C495" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H495" t="s">
         <v>1519</v>
@@ -28202,7 +28226,7 @@
         <v>505</v>
       </c>
       <c r="C496" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H496" t="s">
         <v>1519</v>
@@ -28222,7 +28246,7 @@
         <v>506</v>
       </c>
       <c r="C497" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H497" t="s">
         <v>1519</v>
@@ -28242,7 +28266,7 @@
         <v>507</v>
       </c>
       <c r="C498" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H498" t="s">
         <v>1519</v>
@@ -28262,7 +28286,7 @@
         <v>508</v>
       </c>
       <c r="C499" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H499" t="s">
         <v>1520</v>
@@ -28282,7 +28306,7 @@
         <v>509</v>
       </c>
       <c r="C500" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H500" t="s">
         <v>1520</v>

--- a/organize .xlsx
+++ b/organize .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6066" uniqueCount="2029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6066" uniqueCount="2032">
   <si>
     <t>Stars Exhibition</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6936,6 +6936,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Li Jin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yan Binghui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv Peihuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 "新具象"上海展廳中潘德海作品 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 "新具象"成員在上海靜安區文化館 右起依次為侯文怡 徐侃 張隆 毛旭輝 潘德海 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 "新具象"上海展出現場 毛旭輝和劉鐵軍在毛旭輝作品前 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Red </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43 張曉剛 叢林 油畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ye Yongqing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48 葉永青 暗夜 油畫 1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ding Defu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59 丁德福 喚 油畫 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yang Huangli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76 孫式范 對稱的選擇 油畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Wu Shaoxiang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6948,59 +7004,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>22 孫建平 山那邊 油畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Li Jin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Yan Binghui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv Peihuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 "新具象"上海展廳中潘德海作品 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 "新具象"成員在上海靜安區文化館 右起依次為侯文怡 徐侃 張隆 毛旭輝 潘德海 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 "新具象"上海展出現場 毛旭輝和劉鐵軍在毛旭輝作品前 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Red </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>43 張曉剛 叢林 油畫 1985</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ye Yongqing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48 葉永青 暗夜 油畫 1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ding Defu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59 丁德福 喚 油畫 1986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yang Huangli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76 孫式范 對稱的選擇 油畫 1985</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -17087,9 +17099,9 @@
   <dimension ref="A1:N1051"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A496" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C476" sqref="C476"/>
+      <selection pane="bottomLeft" activeCell="B501" sqref="B501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -26194,7 +26206,7 @@
         <v>3</v>
       </c>
       <c r="B392" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="I392" t="s">
         <v>1201</v>
@@ -26211,7 +26223,7 @@
         <v>4</v>
       </c>
       <c r="B393" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="I393" t="s">
         <v>1201</v>
@@ -26279,7 +26291,7 @@
         <v>8</v>
       </c>
       <c r="B397" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="I397" t="s">
         <v>1201</v>
@@ -26540,7 +26552,7 @@
         <v>1982</v>
       </c>
       <c r="F412" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="H412" t="s">
         <v>1189</v>
@@ -26977,7 +26989,7 @@
         <v>45</v>
       </c>
       <c r="B434" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="C434" t="s">
         <v>1983</v>
@@ -27040,7 +27052,7 @@
         <v>447</v>
       </c>
       <c r="C437" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="H437" t="s">
         <v>1191</v>
@@ -27077,7 +27089,7 @@
         <v>50</v>
       </c>
       <c r="B439" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C439" t="s">
         <v>1984</v>
@@ -27280,7 +27292,7 @@
         <v>459</v>
       </c>
       <c r="C449" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="H449" t="s">
         <v>1194</v>
@@ -27297,7 +27309,7 @@
         <v>61</v>
       </c>
       <c r="B450" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="C450" t="s">
         <v>1987</v>
@@ -27580,7 +27592,7 @@
         <v>474</v>
       </c>
       <c r="C464" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="H464" t="s">
         <v>1205</v>
@@ -27637,7 +27649,7 @@
         <v>1</v>
       </c>
       <c r="B467" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="C467" t="s">
         <v>1993</v>
@@ -28024,7 +28036,7 @@
       <c r="A487" s="4">
         <v>21</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B487" s="6" t="s">
         <v>496</v>
       </c>
       <c r="C487" t="s">
@@ -28048,7 +28060,7 @@
         <v>497</v>
       </c>
       <c r="C488" t="s">
-        <v>2012</v>
+        <v>2026</v>
       </c>
       <c r="H488" t="s">
         <v>1515</v>
@@ -28064,11 +28076,11 @@
       <c r="A489" s="4">
         <v>23</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489" s="6" t="s">
         <v>498</v>
       </c>
       <c r="C489" t="s">
-        <v>2013</v>
+        <v>2027</v>
       </c>
       <c r="G489" t="s">
         <v>1214</v>
@@ -28088,10 +28100,10 @@
         <v>24</v>
       </c>
       <c r="B490" t="s">
-        <v>499</v>
+        <v>2029</v>
       </c>
       <c r="C490" t="s">
-        <v>2014</v>
+        <v>2028</v>
       </c>
       <c r="G490" t="s">
         <v>1214</v>
@@ -28114,7 +28126,7 @@
         <v>500</v>
       </c>
       <c r="C491" t="s">
-        <v>2015</v>
+        <v>2030</v>
       </c>
       <c r="G491" t="s">
         <v>1214</v>
@@ -28137,7 +28149,7 @@
         <v>501</v>
       </c>
       <c r="C492" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="G492" t="s">
         <v>1092</v>
@@ -28160,7 +28172,7 @@
         <v>502</v>
       </c>
       <c r="C493" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="G493" t="s">
         <v>1092</v>
@@ -28179,11 +28191,11 @@
       <c r="A494" s="4">
         <v>28</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B494" s="6" t="s">
         <v>503</v>
       </c>
       <c r="C494" t="s">
-        <v>2016</v>
+        <v>2031</v>
       </c>
       <c r="G494" t="s">
         <v>1092</v>
@@ -28206,7 +28218,7 @@
         <v>504</v>
       </c>
       <c r="C495" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="H495" t="s">
         <v>1519</v>
@@ -28226,7 +28238,7 @@
         <v>505</v>
       </c>
       <c r="C496" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="H496" t="s">
         <v>1519</v>
@@ -28246,7 +28258,7 @@
         <v>506</v>
       </c>
       <c r="C497" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="H497" t="s">
         <v>1519</v>
@@ -28266,7 +28278,7 @@
         <v>507</v>
       </c>
       <c r="C498" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="H498" t="s">
         <v>1519</v>
@@ -28282,11 +28294,11 @@
       <c r="A499" s="4">
         <v>33</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B499" s="6" t="s">
         <v>508</v>
       </c>
       <c r="C499" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="H499" t="s">
         <v>1520</v>
@@ -28302,11 +28314,11 @@
       <c r="A500" s="5">
         <v>34</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500" s="6" t="s">
         <v>509</v>
       </c>
       <c r="C500" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="H500" t="s">
         <v>1520</v>

--- a/organize .xlsx
+++ b/organize .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6066" uniqueCount="2032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="2035">
   <si>
     <t>Stars Exhibition</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7013,6 +7013,17 @@
   </si>
   <si>
     <t>Yan Binghui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31 呂培桓 回光 油畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the last radiance of the setting sun</t>
+  </si>
+  <si>
+    <t>3 樊波 混沌 油畫 1985</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -17101,7 +17112,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A496" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B501" sqref="B501"/>
+      <selection pane="bottomLeft" activeCell="B506" sqref="B506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -28295,10 +28306,13 @@
         <v>33</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>508</v>
+        <v>2032</v>
       </c>
       <c r="C499" t="s">
         <v>2014</v>
+      </c>
+      <c r="F499" t="s">
+        <v>2033</v>
       </c>
       <c r="H499" t="s">
         <v>1520</v>
@@ -28405,7 +28419,7 @@
         <v>5</v>
       </c>
       <c r="B506" t="s">
-        <v>514</v>
+        <v>2034</v>
       </c>
       <c r="C506" t="s">
         <v>1490</v>

--- a/organize .xlsx
+++ b/organize .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="2035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="2052">
   <si>
     <t>Stars Exhibition</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7024,6 +7024,74 @@
   </si>
   <si>
     <t>3 樊波 混沌 油畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 馬曉星 三千年后對當代城市的考古 綜合材料 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ma Xiaoxing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pi Zhiwei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shao Pusheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shao Xianlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 邵獻嵐 素描1號 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shao Xianlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tang Tao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31 楊文群 德庫寧話的變體 油畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 朱少強 墳 水粉 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33 朱少強 生存競爭 水粉 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 "徐州現代藝術展"參展藝術家合影：從左到右為 李新 史棣華 高天民 周京新 王魯 渠岩 翁劍青 劉志超 李小山 袁獻民 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35 "徐州現代藝術展"參展藝術家合影：從左到右為 呂惠洲 李新 徐永生 袁獻民 秦儉 史棣華 武平人 李亞非 楊迎生 渠岩 翁劍青 王魯 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38 "徐州現代藝術展"參展藝術家合影：從左到右為 馬波生 徐永生 武平人 楊迎生 高天民 渠岩 史棣華 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41 武平人 兩個人的肖像·城市文明的圖示之一 油畫 1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47 渠岩 中國聖經故事——辯經 油畫 1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59 袁獻民 陽光下的孩子 水粉 1985</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -17110,9 +17178,9 @@
   <dimension ref="A1:N1051"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A496" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A563" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B506" sqref="B506"/>
+      <selection pane="bottomLeft" activeCell="B575" sqref="B575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -28678,11 +28746,11 @@
       <c r="A519" s="4">
         <v>18</v>
       </c>
-      <c r="B519" t="s">
-        <v>527</v>
+      <c r="B519" s="6" t="s">
+        <v>2035</v>
       </c>
       <c r="C519" t="s">
-        <v>1495</v>
+        <v>2036</v>
       </c>
       <c r="H519" t="s">
         <v>1495</v>
@@ -28698,11 +28766,11 @@
       <c r="A520" s="4">
         <v>19</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B520" s="6" t="s">
         <v>528</v>
       </c>
       <c r="C520" t="s">
-        <v>1496</v>
+        <v>2037</v>
       </c>
       <c r="H520" t="s">
         <v>1496</v>
@@ -28722,7 +28790,7 @@
         <v>529</v>
       </c>
       <c r="C521" t="s">
-        <v>1497</v>
+        <v>2038</v>
       </c>
       <c r="H521" t="s">
         <v>1497</v>
@@ -28742,7 +28810,7 @@
         <v>530</v>
       </c>
       <c r="C522" t="s">
-        <v>1497</v>
+        <v>2038</v>
       </c>
       <c r="H522" t="s">
         <v>1497</v>
@@ -28802,7 +28870,7 @@
         <v>533</v>
       </c>
       <c r="C525" t="s">
-        <v>1498</v>
+        <v>2039</v>
       </c>
       <c r="H525" t="s">
         <v>1498</v>
@@ -28819,10 +28887,10 @@
         <v>25</v>
       </c>
       <c r="B526" t="s">
-        <v>534</v>
+        <v>2040</v>
       </c>
       <c r="C526" t="s">
-        <v>1498</v>
+        <v>2041</v>
       </c>
       <c r="H526" t="s">
         <v>1498</v>
@@ -28862,7 +28930,7 @@
         <v>536</v>
       </c>
       <c r="C528" t="s">
-        <v>1500</v>
+        <v>2042</v>
       </c>
       <c r="H528" t="s">
         <v>1500</v>
@@ -28958,7 +29026,7 @@
       <c r="A533" s="4">
         <v>32</v>
       </c>
-      <c r="B533" t="s">
+      <c r="B533" s="6" t="s">
         <v>541</v>
       </c>
       <c r="C533" t="s">
@@ -28979,7 +29047,7 @@
         <v>33</v>
       </c>
       <c r="B534" t="s">
-        <v>542</v>
+        <v>2043</v>
       </c>
       <c r="C534" t="s">
         <v>1488</v>
@@ -28999,7 +29067,7 @@
         <v>34</v>
       </c>
       <c r="B535" t="s">
-        <v>543</v>
+        <v>2044</v>
       </c>
       <c r="C535" t="s">
         <v>1487</v>
@@ -29019,7 +29087,7 @@
         <v>35</v>
       </c>
       <c r="B536" t="s">
-        <v>544</v>
+        <v>2045</v>
       </c>
       <c r="C536" t="s">
         <v>1487</v>
@@ -29065,7 +29133,7 @@
         <v>37</v>
       </c>
       <c r="B538" t="s">
-        <v>546</v>
+        <v>2047</v>
       </c>
       <c r="E538" t="s">
         <v>1429</v>
@@ -29085,7 +29153,7 @@
         <v>38</v>
       </c>
       <c r="B539" t="s">
-        <v>547</v>
+        <v>2046</v>
       </c>
       <c r="E539" t="s">
         <v>1429</v>
@@ -29125,7 +29193,7 @@
         <v>40</v>
       </c>
       <c r="B541" t="s">
-        <v>549</v>
+        <v>2048</v>
       </c>
       <c r="E541" t="s">
         <v>1429</v>
@@ -29185,7 +29253,7 @@
         <v>43</v>
       </c>
       <c r="B544" t="s">
-        <v>552</v>
+        <v>2049</v>
       </c>
       <c r="C544" t="s">
         <v>1484</v>
@@ -29323,7 +29391,7 @@
         <v>49</v>
       </c>
       <c r="B550" t="s">
-        <v>558</v>
+        <v>2050</v>
       </c>
       <c r="C550" t="s">
         <v>1345</v>
@@ -29599,7 +29667,7 @@
         <v>61</v>
       </c>
       <c r="B562" t="s">
-        <v>570</v>
+        <v>2051</v>
       </c>
       <c r="C562" t="s">
         <v>1481</v>

--- a/organize .xlsx
+++ b/organize .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="2052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="2054">
   <si>
     <t>Stars Exhibition</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7092,6 +7092,14 @@
   </si>
   <si>
     <t>59 袁獻民 陽光下的孩子 水粉 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78 應為平 蠅與席——現實的合唱 綜合材料 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87 李運英 隨想一號 油畫 1985</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -17178,9 +17186,9 @@
   <dimension ref="A1:N1051"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A563" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B575" sqref="B575"/>
+      <selection pane="bottomLeft" activeCell="B590" sqref="B590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -30034,7 +30042,7 @@
       <c r="A578" s="4">
         <v>77</v>
       </c>
-      <c r="B578" t="s">
+      <c r="B578" s="6" t="s">
         <v>586</v>
       </c>
       <c r="C578" t="s">
@@ -30104,7 +30112,7 @@
         <v>80</v>
       </c>
       <c r="B581" t="s">
-        <v>589</v>
+        <v>2052</v>
       </c>
       <c r="C581" t="s">
         <v>1471</v>
@@ -30149,7 +30157,7 @@
       <c r="A583" s="4">
         <v>82</v>
       </c>
-      <c r="B583" t="s">
+      <c r="B583" s="6" t="s">
         <v>591</v>
       </c>
       <c r="C583" t="s">
@@ -30308,7 +30316,7 @@
         <v>1</v>
       </c>
       <c r="B590" t="s">
-        <v>598</v>
+        <v>2053</v>
       </c>
       <c r="C590" t="s">
         <v>1469</v>

--- a/organize .xlsx
+++ b/organize .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="2054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="2055">
   <si>
     <t>Stars Exhibition</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7100,6 +7100,10 @@
   </si>
   <si>
     <t>87 李運英 隨想一號 油畫 1985</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 曹涌 打瞌睡的戶口簿推銷員 油畫 1985</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7107,7 +7111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7142,6 +7146,14 @@
       <name val="Simsun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -7171,7 +7183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7191,6 +7203,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17186,9 +17204,9 @@
   <dimension ref="A1:N1051"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A627" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B590" sqref="B590"/>
+      <selection pane="bottomLeft" activeCell="B631" sqref="B631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -30364,7 +30382,7 @@
         <v>4</v>
       </c>
       <c r="B593" t="s">
-        <v>600</v>
+        <v>2054</v>
       </c>
       <c r="C593" t="s">
         <v>1216</v>
@@ -30383,7 +30401,7 @@
       <c r="A594" s="4">
         <v>5</v>
       </c>
-      <c r="B594" t="s">
+      <c r="B594" s="6" t="s">
         <v>601</v>
       </c>
       <c r="C594" t="s">
@@ -30483,7 +30501,7 @@
       <c r="A599" s="4">
         <v>10</v>
       </c>
-      <c r="B599" t="s">
+      <c r="B599" s="6" t="s">
         <v>606</v>
       </c>
       <c r="C599" t="s">
@@ -30703,7 +30721,7 @@
       <c r="A610" s="4">
         <v>21</v>
       </c>
-      <c r="B610" t="s">
+      <c r="B610" s="7" t="s">
         <v>617</v>
       </c>
       <c r="C610" t="s">
@@ -30723,7 +30741,7 @@
       <c r="A611" s="4">
         <v>22</v>
       </c>
-      <c r="B611" t="s">
+      <c r="B611" s="8" t="s">
         <v>618</v>
       </c>
       <c r="C611" t="s">
@@ -31017,7 +31035,7 @@
       <c r="A626" s="4">
         <v>12</v>
       </c>
-      <c r="B626" t="s">
+      <c r="B626" s="6" t="s">
         <v>632</v>
       </c>
       <c r="C626" t="s">

--- a/organize .xlsx
+++ b/organize .xlsx
@@ -19,13 +19,13 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6838" uniqueCount="2444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6524" uniqueCount="2441">
   <si>
     <t>Stars Exhibition</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8268,18 +8268,6 @@
   </si>
   <si>
     <t>Count of Picture_name</t>
-  </si>
-  <si>
-    <t>Cao Xuelei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yu Youhan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xiao Gu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11971,7 +11959,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B388" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -52604,10 +52592,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A385"/>
+  <dimension ref="A1:A70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -52617,1921 +52605,351 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1073</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1415</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1416</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1407</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1408</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1409</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1410</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1406</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1404</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1405</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1411</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1412</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>1413</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>1414</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>1417</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>1418</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>1419</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>1420</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>1422</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1423</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>1424</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1425</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1421</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>1426</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>1427</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>1428</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>1433</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>1432</v>
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>1324</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>1438</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>1439</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>1441</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>1455</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>1456</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>1824</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>1825</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>1826</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>1452</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>1453</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>1830</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>1582</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>1831</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>1832</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>1833</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>1834</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>1836</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>1592</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>1843</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>1593</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>1595</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>1594</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>1596</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>1845</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>1846</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>1847</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>1597</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>1848</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>1850</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>1852</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>1853</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>1854</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>1855</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>1598</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>1599</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>1600</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>1601</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>1602</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>1603</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>1604</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>2441</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>2442</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1">
-      <c r="A303" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1">
-      <c r="A305" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1">
-      <c r="A306" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1">
-      <c r="A307" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1">
-      <c r="A308" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
-      <c r="A309" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1">
-      <c r="A310" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
-      <c r="A312" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1">
-      <c r="A315" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1">
-      <c r="A316" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
-      <c r="A317" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1">
-      <c r="A318" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
-      <c r="A319" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1">
-      <c r="A320" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1">
-      <c r="A321" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1">
-      <c r="A329" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1">
-      <c r="A330" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1">
-      <c r="A332" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1">
-      <c r="A333" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1">
-      <c r="A334" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1">
-      <c r="A336" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1">
-      <c r="A338" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1">
-      <c r="A339" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1">
-      <c r="A340" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
-      <c r="A341" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1">
-      <c r="A342" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1">
-      <c r="A343" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1">
-      <c r="A344" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1">
-      <c r="A345" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1">
-      <c r="A346" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1">
-      <c r="A347" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1">
-      <c r="A350" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1">
-      <c r="A352" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
-      <c r="A353" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1">
-      <c r="A354" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1">
-      <c r="A356" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1">
-      <c r="A357" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1">
-      <c r="A358" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1">
-      <c r="A359" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1">
-      <c r="A360" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1">
-      <c r="A361" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1">
-      <c r="A363" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
-      <c r="A366" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" t="s">
         <v>1811</v>
       </c>
     </row>
